--- a/assets/sample_metadata/rsv_test_metadata.xlsx
+++ b/assets/sample_metadata/rsv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyoconnell/Desktop/tostadas/assets/sample_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE30C83-3DA3-A94D-B624-C6F9541C9F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AA4EBC-4E76-0145-8E29-11F8B172C1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="404">
   <si>
     <t>Strategy</t>
   </si>
@@ -1171,39 +1171,9 @@
     <t>test_field_3</t>
   </si>
   <si>
-    <t>MPXV_USA_2022_FL0004</t>
-  </si>
-  <si>
-    <t>Crystal M. Gigante; Philip Lee; Matthew H. Seabolt; Hui Zhao; Kimberly Wilkins; Andrea McCollum; Christina Hutson; Whitni Davidson; Agam Rao; Rafael Mendoza; Yu Li</t>
-  </si>
-  <si>
-    <t>Monkeypox Virus</t>
-  </si>
-  <si>
-    <t>Not provided</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ivar 0.1; samtools 1.7; bwa 0.7.17;  SPAdes 3.13.0; CLC 31</t>
-  </si>
-  <si>
-    <t>MPXV_FL0004</t>
-  </si>
-  <si>
-    <t>[test, test2]</t>
-  </si>
-  <si>
     <t>IL0005</t>
   </si>
   <si>
-    <t>MPXV_USA_2022_IL0005</t>
-  </si>
-  <si>
-    <t>Crystal M. Gigante; Isaac Ghinai; Matthew H. Seabolt; Hui Zhao; Kimberly Wilkins; Andrea McCollum; Christina Hutson; Whitni Davidson; Agam Rao; Janna Kerins; Yu Li</t>
-  </si>
-  <si>
     <t>IL</t>
   </si>
   <si>
@@ -1216,60 +1186,6 @@
     <t>MPXV_IL0005</t>
   </si>
   <si>
-    <t>NY0006</t>
-  </si>
-  <si>
-    <t>MPXV_USA_2022_NY0006</t>
-  </si>
-  <si>
-    <t>Crystal M. Gigante; Scott Hughes; Matthew H. Seabolt; Hui Zhao; Kimberly Wilkins; Andrea McCollum; Christina Hutson; Whitni Davidson; Agam Rao; Jennifer Baumgartner; Yu Li</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ivar 0.1; samtools 1.7; bwa 0.7.17;  SPAdes 3.13.0; CLC 24</t>
-  </si>
-  <si>
-    <t>MPXV_NY0006</t>
-  </si>
-  <si>
-    <t>NY0007</t>
-  </si>
-  <si>
-    <t>MPXV_USA_2022_NY0007</t>
-  </si>
-  <si>
-    <t>N/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ivar 0.1; samtools 1.7; bwa 0.7.17;  SPAdes 3.13.0; CLC 25</t>
-  </si>
-  <si>
-    <t>MPXV_NY0007</t>
-  </si>
-  <si>
-    <t>MPXV_USA_2022_TX0001</t>
-  </si>
-  <si>
-    <t>Crystal M. Gigante; Grace Kubin; Matthew H. Seabolt; Hui Zhao; Kimberly Wilkins; Andrea McCollum; Christina Hutson; Whitni Davidson; Agam Rao; Stephen L. White; Yu Li</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ivar 0.1; samtools 1.7; bwa 0.7.17;  SPAdes 3.13.0; CLC 26</t>
-  </si>
-  <si>
-    <t>MPXV_TX0001</t>
-  </si>
-  <si>
-    <t>dummy</t>
-  </si>
-  <si>
     <t>ncbi-spuid</t>
   </si>
   <si>
@@ -1309,70 +1225,31 @@
     <t>fasta_path</t>
   </si>
   <si>
-    <t>assets/sample_fastas/mpox/FL0004.fasta</t>
-  </si>
-  <si>
-    <t>assets/sample_fastas/mpox/IL0005.fasta</t>
-  </si>
-  <si>
-    <t>assets/sample_fastas/mpox/NY0006.fasta</t>
-  </si>
-  <si>
-    <t>assets/sample_fastas/mpox/NY0007.fasta</t>
-  </si>
-  <si>
-    <t>assets/sample_fastas/mpox/TX0001.fasta</t>
-  </si>
-  <si>
-    <t>assets/sample_fastqs/mpox/2022-053-7721_S6_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>assets/sample_fastqs/mpox/LIY15306A2_2022_054_3005007722.R_1.mpx.fastq.gz</t>
-  </si>
-  <si>
-    <t>assets/sample_fastqs/mpox/2022-028-7666_S3_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>assets/sample_fastqs/mpox/2022-029-7670_S4_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>assets/sample_fastqs/mpox/2022-034-7690_S9_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>assets/sample_fastqs/mpox/2022-053-7721_S6_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>assets/sample_fastqs/mpox/LIY15306A2_2022_054_3005007722.R_2.mpx.fastq.gz</t>
-  </si>
-  <si>
-    <t>assets/sample_fastqs/mpox/2022-028-7666_S3_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>assets/sample_fastqs/mpox/2022-029-7670_S4_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>assets/sample_fastqs/mpox/2022-034-7690_S9_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>I6</t>
   </si>
   <si>
-    <t>NY6</t>
-  </si>
-  <si>
-    <t>NY7</t>
-  </si>
-  <si>
     <t>sample_name</t>
   </si>
   <si>
-    <t>TX0001</t>
-  </si>
-  <si>
-    <t>FL0004</t>
-  </si>
-  <si>
     <t>gff_path</t>
+  </si>
+  <si>
+    <t>RSV_USA_2022_IL0005</t>
+  </si>
+  <si>
+    <t>John Smith; Jane Smith</t>
+  </si>
+  <si>
+    <t>Human orthopneumovirus</t>
+  </si>
+  <si>
+    <t>assets/sample_fastas/rsv/MZ568967.fasta</t>
+  </si>
+  <si>
+    <t>assets/sample_fastqs/rsv/DRR152972.R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>assets/sample_fastqs/rsv/DRR152972.R2.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -2090,8 +1967,8 @@
   </sheetPr>
   <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2145,43 +2022,43 @@
     </row>
     <row r="2" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>368</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="K2" s="37" t="s">
         <v>369</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="N2" s="20" t="s">
         <v>370</v>
@@ -2235,10 +2112,10 @@
         <v>242</v>
       </c>
       <c r="AE2" s="48" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="AF2" s="48" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="AG2" s="37" t="s">
         <v>224</v>
@@ -2262,7 +2139,7 @@
         <v>327</v>
       </c>
       <c r="AN2" s="45" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="AO2" s="45" t="s">
         <v>298</v>
@@ -2303,22 +2180,22 @@
     </row>
     <row r="3" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E3" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="K3" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="O3" t="s">
         <v>257</v>
       </c>
       <c r="P3" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="Q3" t="s">
         <v>350</v>
@@ -2327,24 +2204,24 @@
         <v>307</v>
       </c>
       <c r="S3" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="V3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="X3" s="36"/>
       <c r="AB3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AD3" s="14">
         <v>40</v>
       </c>
-      <c r="AE3" s="14" t="s">
-        <v>424</v>
+      <c r="AE3" s="49" t="s">
+        <v>401</v>
       </c>
       <c r="AF3" s="14"/>
       <c r="AG3" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="AH3" t="s">
         <v>216</v>
@@ -2362,353 +2239,62 @@
         <v>310</v>
       </c>
       <c r="AN3" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="AO3" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="AP3" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="AQ3" s="36"/>
       <c r="AX3" s="14">
         <v>5</v>
       </c>
       <c r="AY3" s="50" t="s">
-        <v>438</v>
+        <v>395</v>
       </c>
       <c r="AZ3" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E4" t="s">
-        <v>394</v>
-      </c>
-      <c r="K4" t="s">
-        <v>393</v>
-      </c>
-      <c r="O4" t="s">
-        <v>257</v>
-      </c>
-      <c r="P4" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>350</v>
-      </c>
-      <c r="R4" t="s">
-        <v>307</v>
-      </c>
-      <c r="S4" t="s">
-        <v>395</v>
-      </c>
-      <c r="V4" t="s">
-        <v>396</v>
-      </c>
       <c r="X4" s="36"/>
-      <c r="AB4" t="s">
-        <v>397</v>
-      </c>
-      <c r="AD4" s="14">
-        <v>121</v>
-      </c>
-      <c r="AE4" s="14" t="s">
-        <v>425</v>
-      </c>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
       <c r="AF4" s="14"/>
-      <c r="AG4" t="s">
-        <v>398</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>415</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>435</v>
-      </c>
       <c r="AQ4" s="36"/>
-      <c r="AX4" s="14">
-        <v>8</v>
-      </c>
-      <c r="AY4" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>0</v>
-      </c>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="14"/>
     </row>
     <row r="5" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E5" t="s">
-        <v>394</v>
-      </c>
-      <c r="K5" t="s">
-        <v>400</v>
-      </c>
-      <c r="O5" t="s">
-        <v>257</v>
-      </c>
-      <c r="P5" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>350</v>
-      </c>
-      <c r="R5" t="s">
-        <v>307</v>
-      </c>
-      <c r="S5" t="s">
-        <v>395</v>
-      </c>
-      <c r="T5" t="s">
-        <v>380</v>
-      </c>
-      <c r="V5" t="s">
-        <v>401</v>
-      </c>
       <c r="X5" s="36"/>
-      <c r="AB5" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD5" s="14">
-        <v>72</v>
-      </c>
-      <c r="AE5" s="14" t="s">
-        <v>426</v>
-      </c>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
       <c r="AF5" s="14"/>
-      <c r="AG5" t="s">
-        <v>403</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>415</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>431</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>436</v>
-      </c>
       <c r="AQ5" s="36"/>
-      <c r="AX5" s="14">
-        <v>4</v>
-      </c>
-      <c r="AY5" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="AZ5" s="14">
-        <v>1</v>
-      </c>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="14"/>
     </row>
     <row r="6" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>442</v>
-      </c>
-      <c r="B6" t="s">
-        <v>404</v>
-      </c>
-      <c r="E6" t="s">
-        <v>405</v>
-      </c>
-      <c r="K6" t="s">
-        <v>404</v>
-      </c>
-      <c r="O6" t="s">
-        <v>257</v>
-      </c>
-      <c r="P6" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>350</v>
-      </c>
-      <c r="R6" t="s">
-        <v>307</v>
-      </c>
-      <c r="S6" t="s">
-        <v>406</v>
-      </c>
-      <c r="T6" t="s">
-        <v>380</v>
-      </c>
-      <c r="V6" t="s">
-        <v>381</v>
-      </c>
       <c r="X6" s="36"/>
-      <c r="AB6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>73</v>
-      </c>
-      <c r="AE6" s="14" t="s">
-        <v>427</v>
-      </c>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
       <c r="AF6" s="14"/>
-      <c r="AG6" t="s">
-        <v>408</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>432</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>437</v>
-      </c>
       <c r="AQ6" s="36"/>
-      <c r="AX6" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="AY6" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="AZ6" s="14">
-        <v>0</v>
-      </c>
+      <c r="AY6" s="50"/>
+      <c r="AZ6" s="14"/>
     </row>
     <row r="7" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K7" t="s">
-        <v>377</v>
-      </c>
-      <c r="O7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>350</v>
-      </c>
-      <c r="R7" t="s">
-        <v>307</v>
-      </c>
-      <c r="S7" t="s">
-        <v>262</v>
-      </c>
-      <c r="T7" t="s">
-        <v>380</v>
-      </c>
-      <c r="V7" t="s">
-        <v>381</v>
-      </c>
       <c r="X7" s="36"/>
-      <c r="AB7" t="s">
-        <v>382</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>247</v>
-      </c>
-      <c r="AE7" s="49" t="s">
-        <v>423</v>
-      </c>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
-      <c r="AG7" t="s">
-        <v>383</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>415</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>433</v>
-      </c>
       <c r="AQ7" s="36"/>
-      <c r="AX7" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="AY7" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="AZ7" s="14">
-        <v>1</v>
-      </c>
+      <c r="AX7" s="14"/>
+      <c r="AZ7" s="14"/>
     </row>
     <row r="8" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X8" s="36"/>
@@ -6786,61 +6372,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -6849,6 +6380,61 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sample_metadata/rsv_test_metadata.xlsx
+++ b/assets/sample_metadata/rsv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyoconnell/Desktop/tostadas/assets/sample_metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AA4EBC-4E76-0145-8E29-11F8B172C1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19114AC-41DF-426F-9F89-AAB97EB22AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="407">
   <si>
     <t>Strategy</t>
   </si>
@@ -1144,9 +1144,6 @@
     <t>Example entries provided here for reference only. All submitted sample metadata must go in sheet "MPXV_Metadata" or will be ignored.</t>
   </si>
   <si>
-    <t>author</t>
-  </si>
-  <si>
     <t>isolate</t>
   </si>
   <si>
@@ -1250,6 +1247,18 @@
   </si>
   <si>
     <t>assets/sample_fastqs/rsv/DRR152972.R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>This submission is part of a test</t>
+  </si>
+  <si>
+    <t>Test RSV</t>
+  </si>
+  <si>
+    <t>authors</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1965,713 +1974,764 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ45"/>
+  <dimension ref="A1:BB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AQ3" sqref="AQ3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="23.5" customWidth="1"/>
-    <col min="14" max="15" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="13.5" style="17" customWidth="1"/>
-    <col min="33" max="33" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="39" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.5" customWidth="1"/>
-    <col min="41" max="49" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="23.453125" customWidth="1"/>
+    <col min="16" max="17" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="31" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.453125" style="17" customWidth="1"/>
+    <col min="35" max="35" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="41" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.453125" customWidth="1"/>
+    <col min="43" max="51" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="13.453125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>317</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="F1" s="13"/>
+      <c r="M1" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="X1" s="36" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="Z1" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AD1" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AI1" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="AH1" s="36" t="s">
+      <c r="AJ1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="AQ1" s="36" t="s">
+      <c r="AS1" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" ht="18.75" customHeight="1">
       <c r="A2" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD2" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG2" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="AH2" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>384</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>389</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>391</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="M2" s="47" t="s">
+      <c r="AI2" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ2" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="AK2" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM2" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN2" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO2" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP2" s="45" t="s">
         <v>385</v>
       </c>
-      <c r="N2" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q2" s="20" t="s">
+      <c r="AQ2" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR2" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS2" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="AT2" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AV2" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW2" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="AX2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="AY2" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="R2" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB2" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE2" s="48" t="s">
+      <c r="BA2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="BB2" s="21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" t="s">
+        <v>398</v>
+      </c>
+      <c r="M3" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>257</v>
+      </c>
+      <c r="R3" t="s">
+        <v>399</v>
+      </c>
+      <c r="S3" t="s">
+        <v>350</v>
+      </c>
+      <c r="T3" t="s">
+        <v>307</v>
+      </c>
+      <c r="U3" t="s">
+        <v>377</v>
+      </c>
+      <c r="X3" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z3" s="36"/>
+      <c r="AD3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH3" s="14"/>
+      <c r="AI3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>401</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>402</v>
+      </c>
+      <c r="AS3" s="36"/>
+      <c r="AZ3" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA3" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="AF2" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="AG2" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH2" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI2" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="AJ2" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="AL2" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="AM2" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="AN2" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="AO2" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="AP2" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="AQ2" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="AR2" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="AS2" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="AT2" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="AU2" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="AV2" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="AW2" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="AX2" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="AY2" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="AZ2" s="21" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B3" t="s">
-        <v>398</v>
-      </c>
-      <c r="E3" t="s">
-        <v>399</v>
-      </c>
-      <c r="K3" t="s">
-        <v>398</v>
-      </c>
-      <c r="O3" t="s">
-        <v>257</v>
-      </c>
-      <c r="P3" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>350</v>
-      </c>
-      <c r="R3" t="s">
-        <v>307</v>
-      </c>
-      <c r="S3" t="s">
-        <v>378</v>
-      </c>
-      <c r="V3" t="s">
-        <v>379</v>
-      </c>
-      <c r="X3" s="36"/>
-      <c r="AB3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AD3" s="14">
-        <v>40</v>
-      </c>
-      <c r="AE3" s="49" t="s">
-        <v>401</v>
-      </c>
-      <c r="AF3" s="14"/>
-      <c r="AG3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>387</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>402</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>403</v>
-      </c>
-      <c r="AQ3" s="36"/>
-      <c r="AX3" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY3" s="50" t="s">
-        <v>395</v>
-      </c>
-      <c r="AZ3" s="14">
+      <c r="BB3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X4" s="36"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
+    <row r="4" spans="1:54" ht="18.75" customHeight="1">
+      <c r="Z4" s="36"/>
       <c r="AF4" s="14"/>
-      <c r="AQ4" s="36"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="49"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AS4" s="36"/>
       <c r="AZ4" s="14"/>
-    </row>
-    <row r="5" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X5" s="36"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="14"/>
+    </row>
+    <row r="5" spans="1:54" ht="18.75" customHeight="1">
+      <c r="Z5" s="36"/>
       <c r="AF5" s="14"/>
-      <c r="AQ5" s="36"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="50"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AS5" s="36"/>
       <c r="AZ5" s="14"/>
-    </row>
-    <row r="6" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X6" s="36"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="14"/>
+    </row>
+    <row r="6" spans="1:54" ht="18.75" customHeight="1">
+      <c r="Z6" s="36"/>
       <c r="AF6" s="14"/>
-      <c r="AQ6" s="36"/>
-      <c r="AY6" s="50"/>
-      <c r="AZ6" s="14"/>
-    </row>
-    <row r="7" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X7" s="36"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AQ7" s="36"/>
-      <c r="AX7" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AS6" s="36"/>
+      <c r="BA6" s="50"/>
+      <c r="BB6" s="14"/>
+    </row>
+    <row r="7" spans="1:54" ht="18.75" customHeight="1">
+      <c r="Z7" s="36"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AS7" s="36"/>
       <c r="AZ7" s="14"/>
-    </row>
-    <row r="8" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X8" s="36"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
+      <c r="BB7" s="14"/>
+    </row>
+    <row r="8" spans="1:54" ht="18.75" customHeight="1">
+      <c r="Z8" s="36"/>
       <c r="AF8" s="14"/>
-      <c r="AQ8" s="36"/>
-    </row>
-    <row r="9" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K9" s="36"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="X9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AQ9" s="36"/>
-    </row>
-    <row r="10" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K10" s="36"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="X10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AQ10" s="36"/>
-    </row>
-    <row r="11" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K11" s="36"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="X11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AQ11" s="36"/>
-    </row>
-    <row r="12" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="36"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="X12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AQ12" s="36"/>
-    </row>
-    <row r="13" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K13" s="36"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="X13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AQ13" s="36"/>
-    </row>
-    <row r="14" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K14" s="36"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="X14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AQ14" s="36"/>
-    </row>
-    <row r="15" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K15" s="36"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="X15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AQ15" s="36"/>
-    </row>
-    <row r="16" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K16" s="36"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="X16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AQ16" s="36"/>
-    </row>
-    <row r="17" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K17" s="36"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="X17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AQ17" s="36"/>
-    </row>
-    <row r="18" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K18" s="36"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="X18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AQ18" s="36"/>
-    </row>
-    <row r="19" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K19" s="36"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="X19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AQ19" s="36"/>
-    </row>
-    <row r="20" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K20" s="36"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="X20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AQ20" s="36"/>
-    </row>
-    <row r="21" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K21" s="36"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="X21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AQ21" s="36"/>
-    </row>
-    <row r="22" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K22" s="36"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="X22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AQ22" s="36"/>
-    </row>
-    <row r="23" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K23" s="36"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="X23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AQ23" s="36"/>
-    </row>
-    <row r="24" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K24" s="36"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="X24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AQ24" s="36"/>
-    </row>
-    <row r="25" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K25" s="36"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="X25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AQ25" s="36"/>
-    </row>
-    <row r="26" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K26" s="36"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="X26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AQ26" s="36"/>
-    </row>
-    <row r="27" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K27" s="36"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="X27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AQ27" s="36"/>
-    </row>
-    <row r="28" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K28" s="36"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="X28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AQ28" s="36"/>
-    </row>
-    <row r="29" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K29" s="36"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="X29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AQ29" s="36"/>
-    </row>
-    <row r="30" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K30" s="36"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="X30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="36"/>
-      <c r="AQ30" s="36"/>
-    </row>
-    <row r="31" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K31" s="36"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="X31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="36"/>
-      <c r="AQ31" s="36"/>
-    </row>
-    <row r="32" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K32" s="36"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="X32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AQ32" s="36"/>
-    </row>
-    <row r="33" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K33" s="36"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="X33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AQ33" s="36"/>
-    </row>
-    <row r="34" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K34" s="36"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="X34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AQ34" s="36"/>
-    </row>
-    <row r="35" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K35" s="36"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="X35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AQ35" s="36"/>
-    </row>
-    <row r="36" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K36" s="36"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="X36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AQ36" s="36"/>
-    </row>
-    <row r="37" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K37" s="36"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="X37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AQ37" s="36"/>
-    </row>
-    <row r="38" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K38" s="36"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="X38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-      <c r="AQ38" s="36"/>
-    </row>
-    <row r="39" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K39" s="36"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="X39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AQ39" s="36"/>
-    </row>
-    <row r="40" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K40" s="36"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="X40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-      <c r="AQ40" s="36"/>
-    </row>
-    <row r="41" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K41" s="36"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="X41" s="36"/>
-      <c r="AB41" s="36"/>
-      <c r="AG41" s="36"/>
-      <c r="AH41" s="36"/>
-      <c r="AQ41" s="36"/>
-    </row>
-    <row r="42" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K42" s="36"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="X42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
-      <c r="AQ42" s="36"/>
-    </row>
-    <row r="43" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K43" s="36"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="X43" s="36"/>
-      <c r="AB43" s="36"/>
-      <c r="AG43" s="36"/>
-      <c r="AH43" s="36"/>
-      <c r="AQ43" s="36"/>
-    </row>
-    <row r="44" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K44" s="36"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="X44" s="36"/>
-      <c r="AB44" s="36"/>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="36"/>
-      <c r="AQ44" s="36"/>
-    </row>
-    <row r="45" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K45" s="36"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="X45" s="36"/>
-      <c r="AB45" s="36"/>
-      <c r="AG45" s="36"/>
-      <c r="AH45" s="36"/>
-      <c r="AQ45" s="36"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AS8" s="36"/>
+    </row>
+    <row r="9" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F9" s="13"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="Z9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AS9" s="36"/>
+    </row>
+    <row r="10" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F10" s="13"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="Z10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AS10" s="36"/>
+    </row>
+    <row r="11" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F11" s="13"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="Z11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AS11" s="36"/>
+    </row>
+    <row r="12" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F12" s="13"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="Z12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AS12" s="36"/>
+    </row>
+    <row r="13" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F13" s="13"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="Z13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AS13" s="36"/>
+    </row>
+    <row r="14" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F14" s="13"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="Z14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AS14" s="36"/>
+    </row>
+    <row r="15" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F15" s="13"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="Z15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AS15" s="36"/>
+    </row>
+    <row r="16" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F16" s="13"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="Z16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AS16" s="36"/>
+    </row>
+    <row r="17" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F17" s="13"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="Z17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AS17" s="36"/>
+    </row>
+    <row r="18" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F18" s="13"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="Z18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AS18" s="36"/>
+    </row>
+    <row r="19" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F19" s="13"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="Z19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AS19" s="36"/>
+    </row>
+    <row r="20" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F20" s="13"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="Z20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AS20" s="36"/>
+    </row>
+    <row r="21" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F21" s="13"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="Z21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AS21" s="36"/>
+    </row>
+    <row r="22" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F22" s="13"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="Z22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AS22" s="36"/>
+    </row>
+    <row r="23" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F23" s="13"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="Z23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AS23" s="36"/>
+    </row>
+    <row r="24" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F24" s="13"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="Z24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AS24" s="36"/>
+    </row>
+    <row r="25" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F25" s="13"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="Z25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AS25" s="36"/>
+    </row>
+    <row r="26" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F26" s="13"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="Z26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AS26" s="36"/>
+    </row>
+    <row r="27" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F27" s="13"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="Z27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AS27" s="36"/>
+    </row>
+    <row r="28" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F28" s="13"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="Z28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AS28" s="36"/>
+    </row>
+    <row r="29" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F29" s="13"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="Z29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AS29" s="36"/>
+    </row>
+    <row r="30" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F30" s="13"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="Z30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AS30" s="36"/>
+    </row>
+    <row r="31" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F31" s="13"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="Z31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="36"/>
+      <c r="AS31" s="36"/>
+    </row>
+    <row r="32" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F32" s="13"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="Z32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AI32" s="36"/>
+      <c r="AJ32" s="36"/>
+      <c r="AS32" s="36"/>
+    </row>
+    <row r="33" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F33" s="13"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="Z33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="36"/>
+      <c r="AS33" s="36"/>
+    </row>
+    <row r="34" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F34" s="13"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="Z34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AS34" s="36"/>
+    </row>
+    <row r="35" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F35" s="13"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="Z35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AS35" s="36"/>
+    </row>
+    <row r="36" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F36" s="13"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="Z36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AS36" s="36"/>
+    </row>
+    <row r="37" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F37" s="13"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="Z37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AS37" s="36"/>
+    </row>
+    <row r="38" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F38" s="13"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="Z38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AS38" s="36"/>
+    </row>
+    <row r="39" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F39" s="13"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="Z39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AI39" s="36"/>
+      <c r="AJ39" s="36"/>
+      <c r="AS39" s="36"/>
+    </row>
+    <row r="40" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F40" s="13"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="Z40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="36"/>
+      <c r="AS40" s="36"/>
+    </row>
+    <row r="41" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F41" s="13"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="Z41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AI41" s="36"/>
+      <c r="AJ41" s="36"/>
+      <c r="AS41" s="36"/>
+    </row>
+    <row r="42" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F42" s="13"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="Z42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="36"/>
+      <c r="AS42" s="36"/>
+    </row>
+    <row r="43" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F43" s="13"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="Z43" s="36"/>
+      <c r="AD43" s="36"/>
+      <c r="AI43" s="36"/>
+      <c r="AJ43" s="36"/>
+      <c r="AS43" s="36"/>
+    </row>
+    <row r="44" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F44" s="13"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="Z44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AI44" s="36"/>
+      <c r="AJ44" s="36"/>
+      <c r="AS44" s="36"/>
+    </row>
+    <row r="45" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F45" s="13"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="Z45" s="36"/>
+      <c r="AD45" s="36"/>
+      <c r="AI45" s="36"/>
+      <c r="AJ45" s="36"/>
+      <c r="AS45" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2690,27 +2750,27 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="35" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="35" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -2733,7 +2793,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="18.75" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>222</v>
       </c>
@@ -2840,7 +2900,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>330</v>
       </c>
@@ -2941,7 +3001,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="18.75" customHeight="1">
       <c r="A4" t="s">
         <v>339</v>
       </c>
@@ -3039,7 +3099,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="18.75" customHeight="1">
       <c r="D5" s="36"/>
       <c r="M5" s="36"/>
       <c r="Q5" s="36"/>
@@ -3047,7 +3107,7 @@
       <c r="U5" s="36"/>
       <c r="AC5" s="36"/>
     </row>
-    <row r="6" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="18.75" customHeight="1">
       <c r="D6" s="36"/>
       <c r="M6" s="36"/>
       <c r="Q6" s="36"/>
@@ -3055,7 +3115,7 @@
       <c r="U6" s="36"/>
       <c r="AC6" s="36"/>
     </row>
-    <row r="7" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="18.75" customHeight="1">
       <c r="D7" s="36"/>
       <c r="M7" s="36"/>
       <c r="Q7" s="36"/>
@@ -3063,7 +3123,7 @@
       <c r="U7" s="36"/>
       <c r="AC7" s="36"/>
     </row>
-    <row r="8" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="18.75" customHeight="1">
       <c r="A8" s="39" t="s">
         <v>341</v>
       </c>
@@ -3076,7 +3136,7 @@
       <c r="U8" s="36"/>
       <c r="AC8" s="36"/>
     </row>
-    <row r="9" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="18.75" customHeight="1">
       <c r="A9" t="s">
         <v>317</v>
       </c>
@@ -3099,7 +3159,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="18.75" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>222</v>
       </c>
@@ -3206,7 +3266,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="18.75" customHeight="1">
       <c r="A11" t="s">
         <v>330</v>
       </c>
@@ -3254,7 +3314,7 @@
       <c r="U11" s="36"/>
       <c r="AC11" s="36"/>
     </row>
-    <row r="12" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>342</v>
       </c>
@@ -3296,7 +3356,7 @@
       <c r="U12" s="36"/>
       <c r="AC12" s="36"/>
     </row>
-    <row r="13" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="18.75" customHeight="1">
       <c r="D13" s="36"/>
       <c r="M13" s="36"/>
       <c r="Q13" s="36"/>
@@ -3304,7 +3364,7 @@
       <c r="U13" s="36"/>
       <c r="AC13" s="36"/>
     </row>
-    <row r="14" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="18.75" customHeight="1">
       <c r="A14" s="39" t="s">
         <v>347</v>
       </c>
@@ -3317,7 +3377,7 @@
       <c r="U14" s="36"/>
       <c r="AC14" s="36"/>
     </row>
-    <row r="15" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="18.75" customHeight="1">
       <c r="A15" t="s">
         <v>317</v>
       </c>
@@ -3340,7 +3400,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="18.75" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>222</v>
       </c>
@@ -3447,7 +3507,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="18.75" customHeight="1">
       <c r="A17" t="s">
         <v>348</v>
       </c>
@@ -3526,7 +3586,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="18.75" customHeight="1">
       <c r="A18" t="s">
         <v>357</v>
       </c>
@@ -3588,7 +3648,7 @@
       </c>
       <c r="AC18" s="36"/>
     </row>
-    <row r="19" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="18.75" customHeight="1">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -3638,7 +3698,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="18.75" customHeight="1">
       <c r="D20" s="36"/>
       <c r="M20" s="36"/>
       <c r="Q20" s="36"/>
@@ -3646,7 +3706,7 @@
       <c r="U20" s="36"/>
       <c r="AC20" s="36"/>
     </row>
-    <row r="21" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="18.75" customHeight="1">
       <c r="D21" s="36"/>
       <c r="M21" s="36"/>
       <c r="Q21" s="36"/>
@@ -3654,7 +3714,7 @@
       <c r="U21" s="36"/>
       <c r="AC21" s="36"/>
     </row>
-    <row r="22" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="18.75" customHeight="1">
       <c r="D22" s="36"/>
       <c r="M22" s="36"/>
       <c r="Q22" s="36"/>
@@ -3662,7 +3722,7 @@
       <c r="U22" s="36"/>
       <c r="AC22" s="36"/>
     </row>
-    <row r="23" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="18.75" customHeight="1">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
@@ -3679,7 +3739,7 @@
       <c r="U23" s="36"/>
       <c r="AC23" s="36"/>
     </row>
-    <row r="24" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="18.75" customHeight="1">
       <c r="A24" s="41"/>
       <c r="B24" s="44" t="s">
         <v>367</v>
@@ -3698,7 +3758,7 @@
       <c r="U24" s="36"/>
       <c r="AC24" s="36"/>
     </row>
-    <row r="25" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="18.75" customHeight="1">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
@@ -3715,7 +3775,7 @@
       <c r="U25" s="36"/>
       <c r="AC25" s="36"/>
     </row>
-    <row r="26" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="18.75" customHeight="1">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
@@ -3732,7 +3792,7 @@
       <c r="U26" s="36"/>
       <c r="AC26" s="36"/>
     </row>
-    <row r="27" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="18.75" customHeight="1">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -3749,7 +3809,7 @@
       <c r="U27" s="36"/>
       <c r="AC27" s="36"/>
     </row>
-    <row r="28" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="18.75" customHeight="1">
       <c r="D28" s="36"/>
       <c r="M28" s="36"/>
       <c r="Q28" s="36"/>
@@ -3757,7 +3817,7 @@
       <c r="U28" s="36"/>
       <c r="AC28" s="36"/>
     </row>
-    <row r="29" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="18.75" customHeight="1">
       <c r="D29" s="36"/>
       <c r="M29" s="36"/>
       <c r="Q29" s="36"/>
@@ -3765,7 +3825,7 @@
       <c r="U29" s="36"/>
       <c r="AC29" s="36"/>
     </row>
-    <row r="30" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="18.75" customHeight="1">
       <c r="D30" s="36"/>
       <c r="M30" s="36"/>
       <c r="Q30" s="36"/>
@@ -3787,30 +3847,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="29" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="29" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="18.75" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>222</v>
       </c>
@@ -3932,7 +3992,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="18.75" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>301</v>
       </c>
@@ -4065,24 +4125,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="31" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="31" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="18.75" customHeight="1">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -4177,7 +4237,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -4260,7 +4320,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="18.75" customHeight="1">
       <c r="O4" s="19"/>
     </row>
   </sheetData>
@@ -4277,20 +4337,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="31" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>222</v>
       </c>
@@ -4385,7 +4445,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="18.75" customHeight="1">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -4494,22 +4554,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -4522,7 +4582,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4539,7 +4599,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4556,7 +4616,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4573,7 +4633,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4590,7 +4650,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4607,7 +4667,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="18.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4624,7 +4684,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="18.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -4641,7 +4701,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="18.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -4658,7 +4718,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -4675,7 +4735,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="18.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -4692,7 +4752,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="18.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -4709,7 +4769,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="18.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -4726,7 +4786,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="18.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -4743,7 +4803,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="18.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -4760,7 +4820,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="18.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -4777,7 +4837,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -4794,7 +4854,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -4811,7 +4871,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -4828,7 +4888,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="18.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -4845,7 +4905,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="18.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -4862,7 +4922,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -4879,7 +4939,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -4896,7 +4956,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -4913,7 +4973,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -4928,7 +4988,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -4945,7 +5005,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -4962,7 +5022,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -4979,7 +5039,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -4996,7 +5056,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -5013,7 +5073,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -5028,7 +5088,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -5045,7 +5105,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="18.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -5062,7 +5122,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="18.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -5079,7 +5139,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="18.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -5094,7 +5154,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="18.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -5109,7 +5169,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="18.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -5126,7 +5186,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -5139,7 +5199,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="18.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -5156,7 +5216,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -5173,7 +5233,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="18.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -5190,7 +5250,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="18.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
@@ -5207,7 +5267,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="18.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
@@ -5224,7 +5284,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
@@ -5241,7 +5301,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="18.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
@@ -5258,7 +5318,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="18.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -5273,7 +5333,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="18.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -5288,7 +5348,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="18.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -5305,7 +5365,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="18.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -5318,7 +5378,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="18.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
@@ -5335,7 +5395,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="18.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
@@ -5352,7 +5412,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="18.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
@@ -5369,7 +5429,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="18.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
@@ -5386,7 +5446,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="18.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
@@ -5403,7 +5463,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="18.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
@@ -5420,7 +5480,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="18.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
@@ -5437,7 +5497,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="18.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
@@ -5454,7 +5514,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="18.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
@@ -5471,7 +5531,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="18.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
@@ -5488,7 +5548,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="18.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
@@ -5505,7 +5565,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="18.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
@@ -5522,7 +5582,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="18.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
@@ -5539,7 +5599,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="18.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
@@ -5556,7 +5616,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="18.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
@@ -5573,7 +5633,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="18.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
@@ -5590,7 +5650,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="18.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
@@ -5607,7 +5667,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="18.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
@@ -5624,7 +5684,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="18.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
@@ -5641,7 +5701,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="18.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
@@ -5658,7 +5718,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="18.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
@@ -5675,7 +5735,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="18.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
@@ -5692,7 +5752,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="18.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
@@ -5709,7 +5769,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="18.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
@@ -5726,7 +5786,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="18.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
@@ -5743,7 +5803,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="18.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
@@ -5760,7 +5820,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="18.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
@@ -5777,7 +5837,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="18.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
@@ -5794,7 +5854,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="18.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>139</v>
       </c>
@@ -5809,7 +5869,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="18.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>140</v>
       </c>
@@ -5824,7 +5884,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="18.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>141</v>
       </c>
@@ -5841,7 +5901,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="18.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>143</v>
       </c>
@@ -5858,7 +5918,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="18.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>145</v>
       </c>
@@ -5875,7 +5935,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="18.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>147</v>
       </c>
@@ -5892,7 +5952,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="18.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
@@ -5905,7 +5965,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="18.75" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>149</v>
       </c>
@@ -5920,7 +5980,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="18.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>150</v>
       </c>
@@ -5955,7 +6015,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="18.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>153</v>
       </c>
@@ -5990,7 +6050,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="18.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>159</v>
       </c>
@@ -6021,7 +6081,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="18.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>157</v>
       </c>
@@ -6052,7 +6112,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="18.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>154</v>
       </c>
@@ -6081,7 +6141,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="18.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>152</v>
       </c>
@@ -6106,7 +6166,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="18.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>151</v>
       </c>
@@ -6129,7 +6189,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="18.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>156</v>
       </c>
@@ -6150,7 +6210,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="18.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>158</v>
       </c>
@@ -6169,7 +6229,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="18.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>155</v>
       </c>
@@ -6188,7 +6248,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="18.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
@@ -6205,7 +6265,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="18.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
@@ -6220,7 +6280,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="18.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
@@ -6235,7 +6295,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="18.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
@@ -6250,7 +6310,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="18.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="8" t="s">
@@ -6265,7 +6325,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="18.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="7" t="s">
@@ -6280,7 +6340,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="18.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
@@ -6295,7 +6355,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="18.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
@@ -6310,7 +6370,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="18.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
@@ -6325,7 +6385,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="18.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1" t="s">
@@ -6340,7 +6400,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="18.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1" t="s">
@@ -6355,7 +6415,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="18.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">

--- a/assets/sample_metadata/rsv_test_metadata.xlsx
+++ b/assets/sample_metadata/rsv_test_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\sample_metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19114AC-41DF-426F-9F89-AAB97EB22AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E99BA2-C56B-49FE-869A-A12F076A6241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="411">
   <si>
     <t>Strategy</t>
   </si>
@@ -1168,9 +1168,6 @@
     <t>test_field_3</t>
   </si>
   <si>
-    <t>IL0005</t>
-  </si>
-  <si>
     <t>IL</t>
   </si>
   <si>
@@ -1180,9 +1177,6 @@
     <t xml:space="preserve"> ivar 0.1; samtools 1.7; bwa 0.7.17;  SPAdes 3.13.0; CLC 23</t>
   </si>
   <si>
-    <t>MPXV_IL0005</t>
-  </si>
-  <si>
     <t>ncbi-spuid</t>
   </si>
   <si>
@@ -1231,9 +1225,6 @@
     <t>gff_path</t>
   </si>
   <si>
-    <t>RSV_USA_2022_IL0005</t>
-  </si>
-  <si>
     <t>John Smith; Jane Smith</t>
   </si>
   <si>
@@ -1259,6 +1250,27 @@
   </si>
   <si>
     <t>authors</t>
+  </si>
+  <si>
+    <t>host_sex</t>
+  </si>
+  <si>
+    <t>host_age</t>
+  </si>
+  <si>
+    <t>RSV_TEST</t>
+  </si>
+  <si>
+    <t>DRR152972</t>
+  </si>
+  <si>
+    <t>PRJDB7467TEST</t>
+  </si>
+  <si>
+    <t>RSV_USA_DRR152972</t>
+  </si>
+  <si>
+    <t>RSV_DRR152972</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1668,6 +1680,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1976,8 +1994,8 @@
   </sheetPr>
   <dimension ref="A1:BB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2033,192 +2051,196 @@
     </row>
     <row r="2" spans="1:54" ht="18.75" customHeight="1">
       <c r="A2" s="45" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="E2" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="G2" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="O2" s="47"/>
+      <c r="P2" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="T2" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="U2" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="V2" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="W2" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="X2" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA2" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB2" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC2" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD2" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE2" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF2" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG2" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH2" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="AI2" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ2" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="AK2" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL2" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM2" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN2" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO2" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP2" s="45" t="s">
         <v>383</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>389</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>391</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="O2" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z2" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB2" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD2" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF2" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG2" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="AH2" s="48" t="s">
-        <v>396</v>
-      </c>
-      <c r="AI2" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="AJ2" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="AL2" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="AM2" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="AN2" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO2" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="AP2" s="45" t="s">
-        <v>385</v>
       </c>
       <c r="AQ2" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="AR2" s="20" t="s">
+      <c r="AR2" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="AS2" s="37" t="s">
+      <c r="AS2" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AT2" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="AU2" s="20" t="s">
+      <c r="AU2" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="AV2" s="20" t="s">
+      <c r="AV2" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="AW2" s="20" t="s">
+      <c r="AW2" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="AX2" s="20" t="s">
+      <c r="AX2" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="AY2" s="20" t="s">
+      <c r="AY2" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="AZ2" s="21" t="s">
+      <c r="AZ2" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="BA2" s="21" t="s">
+      <c r="BA2" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="BB2" s="21" t="s">
+      <c r="BB2" s="54" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:54" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" t="s">
+        <v>408</v>
       </c>
       <c r="E3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M3" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="Q3" t="s">
         <v>257</v>
       </c>
       <c r="R3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="S3" t="s">
         <v>350</v>
@@ -2227,26 +2249,25 @@
         <v>307</v>
       </c>
       <c r="U3" t="s">
+        <v>376</v>
+      </c>
+      <c r="X3" t="s">
         <v>377</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AD3" s="36" t="s">
         <v>378</v>
-      </c>
-      <c r="Z3" s="36"/>
-      <c r="AD3" t="s">
-        <v>379</v>
       </c>
       <c r="AF3" s="14">
         <v>40</v>
       </c>
       <c r="AG3" s="49" t="s">
-        <v>400</v>
-      </c>
-      <c r="AH3" s="14"/>
-      <c r="AI3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AJ3" t="s">
+        <v>397</v>
+      </c>
+      <c r="AI3" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="AJ3" s="36" t="s">
         <v>216</v>
       </c>
       <c r="AK3" t="s">
@@ -2262,20 +2283,20 @@
         <v>310</v>
       </c>
       <c r="AP3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AQ3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AR3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AS3" s="36"/>
       <c r="AZ3" s="14">
         <v>5</v>
       </c>
       <c r="BA3" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="BB3" s="14">
         <v>0</v>
@@ -2283,47 +2304,51 @@
     </row>
     <row r="4" spans="1:54" ht="18.75" customHeight="1">
       <c r="Z4" s="36"/>
+      <c r="AD4" s="36"/>
       <c r="AF4" s="14"/>
       <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
       <c r="AS4" s="36"/>
       <c r="AZ4" s="14"/>
       <c r="BA4" s="49"/>
       <c r="BB4" s="14"/>
     </row>
-    <row r="5" spans="1:54" ht="18.75" customHeight="1">
+    <row r="5" spans="1:54">
       <c r="Z5" s="36"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AS5" s="36"/>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="50"/>
-      <c r="BB5" s="14"/>
+      <c r="AD5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
     </row>
     <row r="6" spans="1:54" ht="18.75" customHeight="1">
       <c r="Z6" s="36"/>
+      <c r="AD6" s="36"/>
       <c r="AF6" s="14"/>
       <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
       <c r="AS6" s="36"/>
       <c r="BA6" s="50"/>
       <c r="BB6" s="14"/>
     </row>
     <row r="7" spans="1:54" ht="18.75" customHeight="1">
       <c r="Z7" s="36"/>
+      <c r="AD7" s="36"/>
       <c r="AF7" s="14"/>
       <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
       <c r="AS7" s="36"/>
       <c r="AZ7" s="14"/>
       <c r="BB7" s="14"/>
     </row>
     <row r="8" spans="1:54" ht="18.75" customHeight="1">
       <c r="Z8" s="36"/>
+      <c r="AD8" s="36"/>
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
       <c r="AS8" s="36"/>
     </row>
     <row r="9" spans="1:54" ht="18.75" customHeight="1">
@@ -6432,6 +6457,61 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -6440,61 +6520,6 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sample_metadata/rsv_test_metadata.xlsx
+++ b/assets/sample_metadata/rsv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E99BA2-C56B-49FE-869A-A12F076A6241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8939F2-836E-49DC-B338-FD060E5D8384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="413">
   <si>
     <t>Strategy</t>
   </si>
@@ -1271,6 +1271,12 @@
   </si>
   <si>
     <t>RSV_DRR152972</t>
+  </si>
+  <si>
+    <t>illumina_library_name</t>
+  </si>
+  <si>
+    <t>nanopore_library_name</t>
   </si>
 </sst>
 </file>
@@ -1675,17 +1681,17 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1992,10 +1998,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BB45"/>
+  <dimension ref="A1:BD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AZ3" sqref="AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2018,12 +2024,14 @@
     <col min="33" max="34" width="13.453125" style="17" customWidth="1"/>
     <col min="35" max="35" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="36" max="41" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.453125" customWidth="1"/>
-    <col min="43" max="51" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.453125" customWidth="1"/>
+    <col min="44" max="51" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.453125" customWidth="1"/>
+    <col min="53" max="53" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="13.453125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="18.75" customHeight="1">
+    <row r="1" spans="1:56" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -2045,11 +2053,11 @@
       <c r="AJ1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="AS1" s="36" t="s">
+      <c r="AT1" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="18.75" customHeight="1">
+    <row r="2" spans="1:56" ht="18.75" customHeight="1">
       <c r="A2" s="45" t="s">
         <v>393</v>
       </c>
@@ -2086,7 +2094,7 @@
       <c r="L2" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="51" t="s">
         <v>368</v>
       </c>
       <c r="N2" s="47" t="s">
@@ -2123,7 +2131,7 @@
       <c r="Y2" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="51" t="s">
         <v>404</v>
       </c>
       <c r="AA2" s="45" t="s">
@@ -2135,13 +2143,13 @@
       <c r="AC2" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="AD2" s="53" t="s">
+      <c r="AD2" s="51" t="s">
         <v>244</v>
       </c>
       <c r="AE2" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="AF2" s="54" t="s">
+      <c r="AF2" s="52" t="s">
         <v>242</v>
       </c>
       <c r="AG2" s="48" t="s">
@@ -2150,10 +2158,10 @@
       <c r="AH2" s="48" t="s">
         <v>394</v>
       </c>
-      <c r="AI2" s="53" t="s">
+      <c r="AI2" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="AJ2" s="53" t="s">
+      <c r="AJ2" s="51" t="s">
         <v>288</v>
       </c>
       <c r="AK2" s="45" t="s">
@@ -2172,46 +2180,52 @@
         <v>327</v>
       </c>
       <c r="AP2" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="AQ2" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="AQ2" s="45" t="s">
+      <c r="AR2" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="AR2" s="45" t="s">
+      <c r="AS2" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="AS2" s="53" t="s">
+      <c r="AT2" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="AT2" s="45" t="s">
+      <c r="AU2" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="AU2" s="45" t="s">
+      <c r="AV2" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="AV2" s="45" t="s">
+      <c r="AW2" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="AW2" s="45" t="s">
+      <c r="AX2" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="AX2" s="45" t="s">
+      <c r="AY2" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="AY2" s="45" t="s">
+      <c r="AZ2" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="BA2" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="AZ2" s="54" t="s">
+      <c r="BB2" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="BA2" s="54" t="s">
+      <c r="BC2" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="BB2" s="54" t="s">
+      <c r="BD2" s="52" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="18.75" customHeight="1">
+    <row r="3" spans="1:56" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>407</v>
       </c>
@@ -2282,76 +2296,76 @@
       <c r="AN3" t="s">
         <v>310</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>384</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>398</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>399</v>
       </c>
-      <c r="AS3" s="36"/>
-      <c r="AZ3" s="14">
+      <c r="AT3" s="36"/>
+      <c r="BB3" s="14">
         <v>5</v>
       </c>
-      <c r="BA3" s="50" t="s">
+      <c r="BC3" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="BB3" s="14">
+      <c r="BD3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="18.75" customHeight="1">
+    <row r="4" spans="1:56" ht="18.75" customHeight="1">
       <c r="Z4" s="36"/>
       <c r="AD4" s="36"/>
       <c r="AF4" s="14"/>
       <c r="AG4" s="14"/>
       <c r="AI4" s="36"/>
       <c r="AJ4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="49"/>
+      <c r="AT4" s="36"/>
       <c r="BB4" s="14"/>
-    </row>
-    <row r="5" spans="1:54">
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="14"/>
+    </row>
+    <row r="5" spans="1:56">
       <c r="Z5" s="36"/>
       <c r="AD5" s="36"/>
       <c r="AI5" s="36"/>
       <c r="AJ5" s="36"/>
     </row>
-    <row r="6" spans="1:54" ht="18.75" customHeight="1">
+    <row r="6" spans="1:56" ht="18.75" customHeight="1">
       <c r="Z6" s="36"/>
       <c r="AD6" s="36"/>
       <c r="AF6" s="14"/>
       <c r="AG6" s="14"/>
       <c r="AI6" s="36"/>
       <c r="AJ6" s="36"/>
-      <c r="AS6" s="36"/>
-      <c r="BA6" s="50"/>
-      <c r="BB6" s="14"/>
-    </row>
-    <row r="7" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT6" s="36"/>
+      <c r="BC6" s="50"/>
+      <c r="BD6" s="14"/>
+    </row>
+    <row r="7" spans="1:56" ht="18.75" customHeight="1">
       <c r="Z7" s="36"/>
       <c r="AD7" s="36"/>
       <c r="AF7" s="14"/>
       <c r="AG7" s="49"/>
       <c r="AI7" s="36"/>
       <c r="AJ7" s="36"/>
-      <c r="AS7" s="36"/>
-      <c r="AZ7" s="14"/>
+      <c r="AT7" s="36"/>
       <c r="BB7" s="14"/>
-    </row>
-    <row r="8" spans="1:54" ht="18.75" customHeight="1">
+      <c r="BD7" s="14"/>
+    </row>
+    <row r="8" spans="1:56" ht="18.75" customHeight="1">
       <c r="Z8" s="36"/>
       <c r="AD8" s="36"/>
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
       <c r="AI8" s="36"/>
       <c r="AJ8" s="36"/>
-      <c r="AS8" s="36"/>
-    </row>
-    <row r="9" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT8" s="36"/>
+    </row>
+    <row r="9" spans="1:56" ht="18.75" customHeight="1">
       <c r="F9" s="13"/>
       <c r="M9" s="36"/>
       <c r="N9" s="46"/>
@@ -2360,9 +2374,9 @@
       <c r="AD9" s="36"/>
       <c r="AI9" s="36"/>
       <c r="AJ9" s="36"/>
-      <c r="AS9" s="36"/>
-    </row>
-    <row r="10" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT9" s="36"/>
+    </row>
+    <row r="10" spans="1:56" ht="18.75" customHeight="1">
       <c r="F10" s="13"/>
       <c r="M10" s="36"/>
       <c r="N10" s="46"/>
@@ -2371,9 +2385,9 @@
       <c r="AD10" s="36"/>
       <c r="AI10" s="36"/>
       <c r="AJ10" s="36"/>
-      <c r="AS10" s="36"/>
-    </row>
-    <row r="11" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT10" s="36"/>
+    </row>
+    <row r="11" spans="1:56" ht="18.75" customHeight="1">
       <c r="F11" s="13"/>
       <c r="M11" s="36"/>
       <c r="N11" s="46"/>
@@ -2382,9 +2396,9 @@
       <c r="AD11" s="36"/>
       <c r="AI11" s="36"/>
       <c r="AJ11" s="36"/>
-      <c r="AS11" s="36"/>
-    </row>
-    <row r="12" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT11" s="36"/>
+    </row>
+    <row r="12" spans="1:56" ht="18.75" customHeight="1">
       <c r="F12" s="13"/>
       <c r="M12" s="36"/>
       <c r="N12" s="46"/>
@@ -2393,9 +2407,9 @@
       <c r="AD12" s="36"/>
       <c r="AI12" s="36"/>
       <c r="AJ12" s="36"/>
-      <c r="AS12" s="36"/>
-    </row>
-    <row r="13" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT12" s="36"/>
+    </row>
+    <row r="13" spans="1:56" ht="18.75" customHeight="1">
       <c r="F13" s="13"/>
       <c r="M13" s="36"/>
       <c r="N13" s="46"/>
@@ -2404,9 +2418,9 @@
       <c r="AD13" s="36"/>
       <c r="AI13" s="36"/>
       <c r="AJ13" s="36"/>
-      <c r="AS13" s="36"/>
-    </row>
-    <row r="14" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT13" s="36"/>
+    </row>
+    <row r="14" spans="1:56" ht="18.75" customHeight="1">
       <c r="F14" s="13"/>
       <c r="M14" s="36"/>
       <c r="N14" s="46"/>
@@ -2415,9 +2429,9 @@
       <c r="AD14" s="36"/>
       <c r="AI14" s="36"/>
       <c r="AJ14" s="36"/>
-      <c r="AS14" s="36"/>
-    </row>
-    <row r="15" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT14" s="36"/>
+    </row>
+    <row r="15" spans="1:56" ht="18.75" customHeight="1">
       <c r="F15" s="13"/>
       <c r="M15" s="36"/>
       <c r="N15" s="46"/>
@@ -2426,9 +2440,9 @@
       <c r="AD15" s="36"/>
       <c r="AI15" s="36"/>
       <c r="AJ15" s="36"/>
-      <c r="AS15" s="36"/>
-    </row>
-    <row r="16" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT15" s="36"/>
+    </row>
+    <row r="16" spans="1:56" ht="18.75" customHeight="1">
       <c r="F16" s="13"/>
       <c r="M16" s="36"/>
       <c r="N16" s="46"/>
@@ -2437,9 +2451,9 @@
       <c r="AD16" s="36"/>
       <c r="AI16" s="36"/>
       <c r="AJ16" s="36"/>
-      <c r="AS16" s="36"/>
-    </row>
-    <row r="17" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT16" s="36"/>
+    </row>
+    <row r="17" spans="6:46" ht="18.75" customHeight="1">
       <c r="F17" s="13"/>
       <c r="M17" s="36"/>
       <c r="N17" s="46"/>
@@ -2448,9 +2462,9 @@
       <c r="AD17" s="36"/>
       <c r="AI17" s="36"/>
       <c r="AJ17" s="36"/>
-      <c r="AS17" s="36"/>
-    </row>
-    <row r="18" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT17" s="36"/>
+    </row>
+    <row r="18" spans="6:46" ht="18.75" customHeight="1">
       <c r="F18" s="13"/>
       <c r="M18" s="36"/>
       <c r="N18" s="46"/>
@@ -2459,9 +2473,9 @@
       <c r="AD18" s="36"/>
       <c r="AI18" s="36"/>
       <c r="AJ18" s="36"/>
-      <c r="AS18" s="36"/>
-    </row>
-    <row r="19" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT18" s="36"/>
+    </row>
+    <row r="19" spans="6:46" ht="18.75" customHeight="1">
       <c r="F19" s="13"/>
       <c r="M19" s="36"/>
       <c r="N19" s="46"/>
@@ -2470,9 +2484,9 @@
       <c r="AD19" s="36"/>
       <c r="AI19" s="36"/>
       <c r="AJ19" s="36"/>
-      <c r="AS19" s="36"/>
-    </row>
-    <row r="20" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT19" s="36"/>
+    </row>
+    <row r="20" spans="6:46" ht="18.75" customHeight="1">
       <c r="F20" s="13"/>
       <c r="M20" s="36"/>
       <c r="N20" s="46"/>
@@ -2481,9 +2495,9 @@
       <c r="AD20" s="36"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="36"/>
-      <c r="AS20" s="36"/>
-    </row>
-    <row r="21" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT20" s="36"/>
+    </row>
+    <row r="21" spans="6:46" ht="18.75" customHeight="1">
       <c r="F21" s="13"/>
       <c r="M21" s="36"/>
       <c r="N21" s="46"/>
@@ -2492,9 +2506,9 @@
       <c r="AD21" s="36"/>
       <c r="AI21" s="36"/>
       <c r="AJ21" s="36"/>
-      <c r="AS21" s="36"/>
-    </row>
-    <row r="22" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT21" s="36"/>
+    </row>
+    <row r="22" spans="6:46" ht="18.75" customHeight="1">
       <c r="F22" s="13"/>
       <c r="M22" s="36"/>
       <c r="N22" s="46"/>
@@ -2503,9 +2517,9 @@
       <c r="AD22" s="36"/>
       <c r="AI22" s="36"/>
       <c r="AJ22" s="36"/>
-      <c r="AS22" s="36"/>
-    </row>
-    <row r="23" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT22" s="36"/>
+    </row>
+    <row r="23" spans="6:46" ht="18.75" customHeight="1">
       <c r="F23" s="13"/>
       <c r="M23" s="36"/>
       <c r="N23" s="46"/>
@@ -2514,9 +2528,9 @@
       <c r="AD23" s="36"/>
       <c r="AI23" s="36"/>
       <c r="AJ23" s="36"/>
-      <c r="AS23" s="36"/>
-    </row>
-    <row r="24" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT23" s="36"/>
+    </row>
+    <row r="24" spans="6:46" ht="18.75" customHeight="1">
       <c r="F24" s="13"/>
       <c r="M24" s="36"/>
       <c r="N24" s="46"/>
@@ -2525,9 +2539,9 @@
       <c r="AD24" s="36"/>
       <c r="AI24" s="36"/>
       <c r="AJ24" s="36"/>
-      <c r="AS24" s="36"/>
-    </row>
-    <row r="25" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT24" s="36"/>
+    </row>
+    <row r="25" spans="6:46" ht="18.75" customHeight="1">
       <c r="F25" s="13"/>
       <c r="M25" s="36"/>
       <c r="N25" s="46"/>
@@ -2536,9 +2550,9 @@
       <c r="AD25" s="36"/>
       <c r="AI25" s="36"/>
       <c r="AJ25" s="36"/>
-      <c r="AS25" s="36"/>
-    </row>
-    <row r="26" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT25" s="36"/>
+    </row>
+    <row r="26" spans="6:46" ht="18.75" customHeight="1">
       <c r="F26" s="13"/>
       <c r="M26" s="36"/>
       <c r="N26" s="46"/>
@@ -2547,9 +2561,9 @@
       <c r="AD26" s="36"/>
       <c r="AI26" s="36"/>
       <c r="AJ26" s="36"/>
-      <c r="AS26" s="36"/>
-    </row>
-    <row r="27" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT26" s="36"/>
+    </row>
+    <row r="27" spans="6:46" ht="18.75" customHeight="1">
       <c r="F27" s="13"/>
       <c r="M27" s="36"/>
       <c r="N27" s="46"/>
@@ -2558,9 +2572,9 @@
       <c r="AD27" s="36"/>
       <c r="AI27" s="36"/>
       <c r="AJ27" s="36"/>
-      <c r="AS27" s="36"/>
-    </row>
-    <row r="28" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT27" s="36"/>
+    </row>
+    <row r="28" spans="6:46" ht="18.75" customHeight="1">
       <c r="F28" s="13"/>
       <c r="M28" s="36"/>
       <c r="N28" s="46"/>
@@ -2569,9 +2583,9 @@
       <c r="AD28" s="36"/>
       <c r="AI28" s="36"/>
       <c r="AJ28" s="36"/>
-      <c r="AS28" s="36"/>
-    </row>
-    <row r="29" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT28" s="36"/>
+    </row>
+    <row r="29" spans="6:46" ht="18.75" customHeight="1">
       <c r="F29" s="13"/>
       <c r="M29" s="36"/>
       <c r="N29" s="46"/>
@@ -2580,9 +2594,9 @@
       <c r="AD29" s="36"/>
       <c r="AI29" s="36"/>
       <c r="AJ29" s="36"/>
-      <c r="AS29" s="36"/>
-    </row>
-    <row r="30" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT29" s="36"/>
+    </row>
+    <row r="30" spans="6:46" ht="18.75" customHeight="1">
       <c r="F30" s="13"/>
       <c r="M30" s="36"/>
       <c r="N30" s="46"/>
@@ -2591,9 +2605,9 @@
       <c r="AD30" s="36"/>
       <c r="AI30" s="36"/>
       <c r="AJ30" s="36"/>
-      <c r="AS30" s="36"/>
-    </row>
-    <row r="31" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT30" s="36"/>
+    </row>
+    <row r="31" spans="6:46" ht="18.75" customHeight="1">
       <c r="F31" s="13"/>
       <c r="M31" s="36"/>
       <c r="N31" s="46"/>
@@ -2602,9 +2616,9 @@
       <c r="AD31" s="36"/>
       <c r="AI31" s="36"/>
       <c r="AJ31" s="36"/>
-      <c r="AS31" s="36"/>
-    </row>
-    <row r="32" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT31" s="36"/>
+    </row>
+    <row r="32" spans="6:46" ht="18.75" customHeight="1">
       <c r="F32" s="13"/>
       <c r="M32" s="36"/>
       <c r="N32" s="46"/>
@@ -2613,9 +2627,9 @@
       <c r="AD32" s="36"/>
       <c r="AI32" s="36"/>
       <c r="AJ32" s="36"/>
-      <c r="AS32" s="36"/>
-    </row>
-    <row r="33" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT32" s="36"/>
+    </row>
+    <row r="33" spans="6:46" ht="18.75" customHeight="1">
       <c r="F33" s="13"/>
       <c r="M33" s="36"/>
       <c r="N33" s="46"/>
@@ -2624,9 +2638,9 @@
       <c r="AD33" s="36"/>
       <c r="AI33" s="36"/>
       <c r="AJ33" s="36"/>
-      <c r="AS33" s="36"/>
-    </row>
-    <row r="34" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT33" s="36"/>
+    </row>
+    <row r="34" spans="6:46" ht="18.75" customHeight="1">
       <c r="F34" s="13"/>
       <c r="M34" s="36"/>
       <c r="N34" s="46"/>
@@ -2635,9 +2649,9 @@
       <c r="AD34" s="36"/>
       <c r="AI34" s="36"/>
       <c r="AJ34" s="36"/>
-      <c r="AS34" s="36"/>
-    </row>
-    <row r="35" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT34" s="36"/>
+    </row>
+    <row r="35" spans="6:46" ht="18.75" customHeight="1">
       <c r="F35" s="13"/>
       <c r="M35" s="36"/>
       <c r="N35" s="46"/>
@@ -2646,9 +2660,9 @@
       <c r="AD35" s="36"/>
       <c r="AI35" s="36"/>
       <c r="AJ35" s="36"/>
-      <c r="AS35" s="36"/>
-    </row>
-    <row r="36" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT35" s="36"/>
+    </row>
+    <row r="36" spans="6:46" ht="18.75" customHeight="1">
       <c r="F36" s="13"/>
       <c r="M36" s="36"/>
       <c r="N36" s="46"/>
@@ -2657,9 +2671,9 @@
       <c r="AD36" s="36"/>
       <c r="AI36" s="36"/>
       <c r="AJ36" s="36"/>
-      <c r="AS36" s="36"/>
-    </row>
-    <row r="37" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT36" s="36"/>
+    </row>
+    <row r="37" spans="6:46" ht="18.75" customHeight="1">
       <c r="F37" s="13"/>
       <c r="M37" s="36"/>
       <c r="N37" s="46"/>
@@ -2668,9 +2682,9 @@
       <c r="AD37" s="36"/>
       <c r="AI37" s="36"/>
       <c r="AJ37" s="36"/>
-      <c r="AS37" s="36"/>
-    </row>
-    <row r="38" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT37" s="36"/>
+    </row>
+    <row r="38" spans="6:46" ht="18.75" customHeight="1">
       <c r="F38" s="13"/>
       <c r="M38" s="36"/>
       <c r="N38" s="46"/>
@@ -2679,9 +2693,9 @@
       <c r="AD38" s="36"/>
       <c r="AI38" s="36"/>
       <c r="AJ38" s="36"/>
-      <c r="AS38" s="36"/>
-    </row>
-    <row r="39" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT38" s="36"/>
+    </row>
+    <row r="39" spans="6:46" ht="18.75" customHeight="1">
       <c r="F39" s="13"/>
       <c r="M39" s="36"/>
       <c r="N39" s="46"/>
@@ -2690,9 +2704,9 @@
       <c r="AD39" s="36"/>
       <c r="AI39" s="36"/>
       <c r="AJ39" s="36"/>
-      <c r="AS39" s="36"/>
-    </row>
-    <row r="40" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT39" s="36"/>
+    </row>
+    <row r="40" spans="6:46" ht="18.75" customHeight="1">
       <c r="F40" s="13"/>
       <c r="M40" s="36"/>
       <c r="N40" s="46"/>
@@ -2701,9 +2715,9 @@
       <c r="AD40" s="36"/>
       <c r="AI40" s="36"/>
       <c r="AJ40" s="36"/>
-      <c r="AS40" s="36"/>
-    </row>
-    <row r="41" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT40" s="36"/>
+    </row>
+    <row r="41" spans="6:46" ht="18.75" customHeight="1">
       <c r="F41" s="13"/>
       <c r="M41" s="36"/>
       <c r="N41" s="46"/>
@@ -2712,9 +2726,9 @@
       <c r="AD41" s="36"/>
       <c r="AI41" s="36"/>
       <c r="AJ41" s="36"/>
-      <c r="AS41" s="36"/>
-    </row>
-    <row r="42" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT41" s="36"/>
+    </row>
+    <row r="42" spans="6:46" ht="18.75" customHeight="1">
       <c r="F42" s="13"/>
       <c r="M42" s="36"/>
       <c r="N42" s="46"/>
@@ -2723,9 +2737,9 @@
       <c r="AD42" s="36"/>
       <c r="AI42" s="36"/>
       <c r="AJ42" s="36"/>
-      <c r="AS42" s="36"/>
-    </row>
-    <row r="43" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT42" s="36"/>
+    </row>
+    <row r="43" spans="6:46" ht="18.75" customHeight="1">
       <c r="F43" s="13"/>
       <c r="M43" s="36"/>
       <c r="N43" s="46"/>
@@ -2734,9 +2748,9 @@
       <c r="AD43" s="36"/>
       <c r="AI43" s="36"/>
       <c r="AJ43" s="36"/>
-      <c r="AS43" s="36"/>
-    </row>
-    <row r="44" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT43" s="36"/>
+    </row>
+    <row r="44" spans="6:46" ht="18.75" customHeight="1">
       <c r="F44" s="13"/>
       <c r="M44" s="36"/>
       <c r="N44" s="46"/>
@@ -2745,9 +2759,9 @@
       <c r="AD44" s="36"/>
       <c r="AI44" s="36"/>
       <c r="AJ44" s="36"/>
-      <c r="AS44" s="36"/>
-    </row>
-    <row r="45" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT44" s="36"/>
+    </row>
+    <row r="45" spans="6:46" ht="18.75" customHeight="1">
       <c r="F45" s="13"/>
       <c r="M45" s="36"/>
       <c r="N45" s="46"/>
@@ -2756,7 +2770,7 @@
       <c r="AD45" s="36"/>
       <c r="AI45" s="36"/>
       <c r="AJ45" s="36"/>
-      <c r="AS45" s="36"/>
+      <c r="AT45" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4596,8 +4610,8 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4611,10 +4625,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4628,10 +4642,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4645,10 +4659,10 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -4662,10 +4676,10 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4679,10 +4693,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4696,10 +4710,10 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -4713,10 +4727,10 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -4730,10 +4744,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -4747,10 +4761,10 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -4764,10 +4778,10 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -4781,10 +4795,10 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -4798,10 +4812,10 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -4815,10 +4829,10 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -4832,10 +4846,10 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -4849,10 +4863,10 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -4866,10 +4880,10 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -4883,10 +4897,10 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -4900,10 +4914,10 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -4917,10 +4931,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -4934,10 +4948,10 @@
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -4951,10 +4965,10 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -4968,10 +4982,10 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -4985,10 +4999,10 @@
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -5198,10 +5212,10 @@
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5213,8 +5227,8 @@
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -5228,10 +5242,10 @@
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -5245,10 +5259,10 @@
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -5262,10 +5276,10 @@
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5279,10 +5293,10 @@
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5296,10 +5310,10 @@
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="51"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -5313,10 +5327,10 @@
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="51"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -5330,10 +5344,10 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="51"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -5377,10 +5391,10 @@
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="51"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -5392,8 +5406,8 @@
     </row>
     <row r="49" spans="1:11" ht="18.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5407,10 +5421,10 @@
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="51"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -5424,10 +5438,10 @@
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="51"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -5441,10 +5455,10 @@
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="51"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5458,10 +5472,10 @@
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="51"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -5475,10 +5489,10 @@
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="51"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -5492,10 +5506,10 @@
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="51"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5509,10 +5523,10 @@
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="51"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5526,10 +5540,10 @@
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="51"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5543,10 +5557,10 @@
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="51"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5560,10 +5574,10 @@
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="51"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5577,10 +5591,10 @@
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="51"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5594,10 +5608,10 @@
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="51"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5611,10 +5625,10 @@
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -5628,10 +5642,10 @@
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -5645,10 +5659,10 @@
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="51"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -5662,10 +5676,10 @@
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="51"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -5679,10 +5693,10 @@
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="51"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -5696,10 +5710,10 @@
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="51"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -5713,10 +5727,10 @@
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="51"/>
+      <c r="C68" s="53"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -5730,10 +5744,10 @@
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="51"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -5747,10 +5761,10 @@
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="51"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -5764,10 +5778,10 @@
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="51"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -5781,10 +5795,10 @@
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="51"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -5798,10 +5812,10 @@
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="51"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -5815,10 +5829,10 @@
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="51"/>
+      <c r="C74" s="53"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -5832,10 +5846,10 @@
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="51"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -5849,10 +5863,10 @@
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="51"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -5866,10 +5880,10 @@
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="51"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -6457,61 +6471,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -6520,6 +6479,61 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sample_metadata/rsv_test_metadata.xlsx
+++ b/assets/sample_metadata/rsv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E99BA2-C56B-49FE-869A-A12F076A6241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105C7781-DFEC-42F0-A386-83F39D64D962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="413">
   <si>
     <t>Strategy</t>
   </si>
@@ -1271,6 +1271,12 @@
   </si>
   <si>
     <t>RSV_DRR152972</t>
+  </si>
+  <si>
+    <t>illumina_library_name</t>
+  </si>
+  <si>
+    <t>nanopore_library_name</t>
   </si>
 </sst>
 </file>
@@ -1675,17 +1681,17 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1992,10 +1998,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BB45"/>
+  <dimension ref="A1:BD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AZ3" sqref="AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2018,12 +2024,14 @@
     <col min="33" max="34" width="13.453125" style="17" customWidth="1"/>
     <col min="35" max="35" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="36" max="41" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.453125" customWidth="1"/>
-    <col min="43" max="51" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.453125" customWidth="1"/>
+    <col min="44" max="51" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.453125" customWidth="1"/>
+    <col min="53" max="53" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="13.453125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="18.75" customHeight="1">
+    <row r="1" spans="1:56" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -2045,11 +2053,11 @@
       <c r="AJ1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="AS1" s="36" t="s">
+      <c r="AT1" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="18.75" customHeight="1">
+    <row r="2" spans="1:56" ht="18.75" customHeight="1">
       <c r="A2" s="45" t="s">
         <v>393</v>
       </c>
@@ -2086,7 +2094,7 @@
       <c r="L2" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="51" t="s">
         <v>368</v>
       </c>
       <c r="N2" s="47" t="s">
@@ -2123,7 +2131,7 @@
       <c r="Y2" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="51" t="s">
         <v>404</v>
       </c>
       <c r="AA2" s="45" t="s">
@@ -2135,13 +2143,13 @@
       <c r="AC2" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="AD2" s="53" t="s">
+      <c r="AD2" s="51" t="s">
         <v>244</v>
       </c>
       <c r="AE2" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="AF2" s="54" t="s">
+      <c r="AF2" s="52" t="s">
         <v>242</v>
       </c>
       <c r="AG2" s="48" t="s">
@@ -2150,10 +2158,10 @@
       <c r="AH2" s="48" t="s">
         <v>394</v>
       </c>
-      <c r="AI2" s="53" t="s">
+      <c r="AI2" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="AJ2" s="53" t="s">
+      <c r="AJ2" s="51" t="s">
         <v>288</v>
       </c>
       <c r="AK2" s="45" t="s">
@@ -2172,46 +2180,52 @@
         <v>327</v>
       </c>
       <c r="AP2" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="AQ2" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="AQ2" s="45" t="s">
+      <c r="AR2" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="AR2" s="45" t="s">
+      <c r="AS2" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="AS2" s="53" t="s">
+      <c r="AT2" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="AT2" s="45" t="s">
+      <c r="AU2" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="AU2" s="45" t="s">
+      <c r="AV2" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="AV2" s="45" t="s">
+      <c r="AW2" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="AW2" s="45" t="s">
+      <c r="AX2" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="AX2" s="45" t="s">
+      <c r="AY2" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="AY2" s="45" t="s">
+      <c r="AZ2" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="BA2" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="AZ2" s="54" t="s">
+      <c r="BB2" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="BA2" s="54" t="s">
+      <c r="BC2" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="BB2" s="54" t="s">
+      <c r="BD2" s="52" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="18.75" customHeight="1">
+    <row r="3" spans="1:56" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>407</v>
       </c>
@@ -2282,76 +2296,76 @@
       <c r="AN3" t="s">
         <v>310</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>384</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>398</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>399</v>
       </c>
-      <c r="AS3" s="36"/>
-      <c r="AZ3" s="14">
+      <c r="AT3" s="36"/>
+      <c r="BB3" s="14">
         <v>5</v>
       </c>
-      <c r="BA3" s="50" t="s">
+      <c r="BC3" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="BB3" s="14">
+      <c r="BD3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="18.75" customHeight="1">
+    <row r="4" spans="1:56" ht="18.75" customHeight="1">
       <c r="Z4" s="36"/>
       <c r="AD4" s="36"/>
       <c r="AF4" s="14"/>
       <c r="AG4" s="14"/>
       <c r="AI4" s="36"/>
       <c r="AJ4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="49"/>
+      <c r="AT4" s="36"/>
       <c r="BB4" s="14"/>
-    </row>
-    <row r="5" spans="1:54">
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="14"/>
+    </row>
+    <row r="5" spans="1:56">
       <c r="Z5" s="36"/>
       <c r="AD5" s="36"/>
       <c r="AI5" s="36"/>
       <c r="AJ5" s="36"/>
     </row>
-    <row r="6" spans="1:54" ht="18.75" customHeight="1">
+    <row r="6" spans="1:56" ht="18.75" customHeight="1">
       <c r="Z6" s="36"/>
       <c r="AD6" s="36"/>
       <c r="AF6" s="14"/>
       <c r="AG6" s="14"/>
       <c r="AI6" s="36"/>
       <c r="AJ6" s="36"/>
-      <c r="AS6" s="36"/>
-      <c r="BA6" s="50"/>
-      <c r="BB6" s="14"/>
-    </row>
-    <row r="7" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT6" s="36"/>
+      <c r="BC6" s="50"/>
+      <c r="BD6" s="14"/>
+    </row>
+    <row r="7" spans="1:56" ht="18.75" customHeight="1">
       <c r="Z7" s="36"/>
       <c r="AD7" s="36"/>
       <c r="AF7" s="14"/>
       <c r="AG7" s="49"/>
       <c r="AI7" s="36"/>
       <c r="AJ7" s="36"/>
-      <c r="AS7" s="36"/>
-      <c r="AZ7" s="14"/>
+      <c r="AT7" s="36"/>
       <c r="BB7" s="14"/>
-    </row>
-    <row r="8" spans="1:54" ht="18.75" customHeight="1">
+      <c r="BD7" s="14"/>
+    </row>
+    <row r="8" spans="1:56" ht="18.75" customHeight="1">
       <c r="Z8" s="36"/>
       <c r="AD8" s="36"/>
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
       <c r="AI8" s="36"/>
       <c r="AJ8" s="36"/>
-      <c r="AS8" s="36"/>
-    </row>
-    <row r="9" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT8" s="36"/>
+    </row>
+    <row r="9" spans="1:56" ht="18.75" customHeight="1">
       <c r="F9" s="13"/>
       <c r="M9" s="36"/>
       <c r="N9" s="46"/>
@@ -2360,9 +2374,9 @@
       <c r="AD9" s="36"/>
       <c r="AI9" s="36"/>
       <c r="AJ9" s="36"/>
-      <c r="AS9" s="36"/>
-    </row>
-    <row r="10" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT9" s="36"/>
+    </row>
+    <row r="10" spans="1:56" ht="18.75" customHeight="1">
       <c r="F10" s="13"/>
       <c r="M10" s="36"/>
       <c r="N10" s="46"/>
@@ -2371,9 +2385,9 @@
       <c r="AD10" s="36"/>
       <c r="AI10" s="36"/>
       <c r="AJ10" s="36"/>
-      <c r="AS10" s="36"/>
-    </row>
-    <row r="11" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT10" s="36"/>
+    </row>
+    <row r="11" spans="1:56" ht="18.75" customHeight="1">
       <c r="F11" s="13"/>
       <c r="M11" s="36"/>
       <c r="N11" s="46"/>
@@ -2382,9 +2396,9 @@
       <c r="AD11" s="36"/>
       <c r="AI11" s="36"/>
       <c r="AJ11" s="36"/>
-      <c r="AS11" s="36"/>
-    </row>
-    <row r="12" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT11" s="36"/>
+    </row>
+    <row r="12" spans="1:56" ht="18.75" customHeight="1">
       <c r="F12" s="13"/>
       <c r="M12" s="36"/>
       <c r="N12" s="46"/>
@@ -2393,9 +2407,9 @@
       <c r="AD12" s="36"/>
       <c r="AI12" s="36"/>
       <c r="AJ12" s="36"/>
-      <c r="AS12" s="36"/>
-    </row>
-    <row r="13" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT12" s="36"/>
+    </row>
+    <row r="13" spans="1:56" ht="18.75" customHeight="1">
       <c r="F13" s="13"/>
       <c r="M13" s="36"/>
       <c r="N13" s="46"/>
@@ -2404,9 +2418,9 @@
       <c r="AD13" s="36"/>
       <c r="AI13" s="36"/>
       <c r="AJ13" s="36"/>
-      <c r="AS13" s="36"/>
-    </row>
-    <row r="14" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT13" s="36"/>
+    </row>
+    <row r="14" spans="1:56" ht="18.75" customHeight="1">
       <c r="F14" s="13"/>
       <c r="M14" s="36"/>
       <c r="N14" s="46"/>
@@ -2415,9 +2429,9 @@
       <c r="AD14" s="36"/>
       <c r="AI14" s="36"/>
       <c r="AJ14" s="36"/>
-      <c r="AS14" s="36"/>
-    </row>
-    <row r="15" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT14" s="36"/>
+    </row>
+    <row r="15" spans="1:56" ht="18.75" customHeight="1">
       <c r="F15" s="13"/>
       <c r="M15" s="36"/>
       <c r="N15" s="46"/>
@@ -2426,9 +2440,9 @@
       <c r="AD15" s="36"/>
       <c r="AI15" s="36"/>
       <c r="AJ15" s="36"/>
-      <c r="AS15" s="36"/>
-    </row>
-    <row r="16" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AT15" s="36"/>
+    </row>
+    <row r="16" spans="1:56" ht="18.75" customHeight="1">
       <c r="F16" s="13"/>
       <c r="M16" s="36"/>
       <c r="N16" s="46"/>
@@ -2437,9 +2451,9 @@
       <c r="AD16" s="36"/>
       <c r="AI16" s="36"/>
       <c r="AJ16" s="36"/>
-      <c r="AS16" s="36"/>
-    </row>
-    <row r="17" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT16" s="36"/>
+    </row>
+    <row r="17" spans="6:46" ht="18.75" customHeight="1">
       <c r="F17" s="13"/>
       <c r="M17" s="36"/>
       <c r="N17" s="46"/>
@@ -2448,9 +2462,9 @@
       <c r="AD17" s="36"/>
       <c r="AI17" s="36"/>
       <c r="AJ17" s="36"/>
-      <c r="AS17" s="36"/>
-    </row>
-    <row r="18" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT17" s="36"/>
+    </row>
+    <row r="18" spans="6:46" ht="18.75" customHeight="1">
       <c r="F18" s="13"/>
       <c r="M18" s="36"/>
       <c r="N18" s="46"/>
@@ -2459,9 +2473,9 @@
       <c r="AD18" s="36"/>
       <c r="AI18" s="36"/>
       <c r="AJ18" s="36"/>
-      <c r="AS18" s="36"/>
-    </row>
-    <row r="19" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT18" s="36"/>
+    </row>
+    <row r="19" spans="6:46" ht="18.75" customHeight="1">
       <c r="F19" s="13"/>
       <c r="M19" s="36"/>
       <c r="N19" s="46"/>
@@ -2470,9 +2484,9 @@
       <c r="AD19" s="36"/>
       <c r="AI19" s="36"/>
       <c r="AJ19" s="36"/>
-      <c r="AS19" s="36"/>
-    </row>
-    <row r="20" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT19" s="36"/>
+    </row>
+    <row r="20" spans="6:46" ht="18.75" customHeight="1">
       <c r="F20" s="13"/>
       <c r="M20" s="36"/>
       <c r="N20" s="46"/>
@@ -2481,9 +2495,9 @@
       <c r="AD20" s="36"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="36"/>
-      <c r="AS20" s="36"/>
-    </row>
-    <row r="21" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT20" s="36"/>
+    </row>
+    <row r="21" spans="6:46" ht="18.75" customHeight="1">
       <c r="F21" s="13"/>
       <c r="M21" s="36"/>
       <c r="N21" s="46"/>
@@ -2492,9 +2506,9 @@
       <c r="AD21" s="36"/>
       <c r="AI21" s="36"/>
       <c r="AJ21" s="36"/>
-      <c r="AS21" s="36"/>
-    </row>
-    <row r="22" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT21" s="36"/>
+    </row>
+    <row r="22" spans="6:46" ht="18.75" customHeight="1">
       <c r="F22" s="13"/>
       <c r="M22" s="36"/>
       <c r="N22" s="46"/>
@@ -2503,9 +2517,9 @@
       <c r="AD22" s="36"/>
       <c r="AI22" s="36"/>
       <c r="AJ22" s="36"/>
-      <c r="AS22" s="36"/>
-    </row>
-    <row r="23" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT22" s="36"/>
+    </row>
+    <row r="23" spans="6:46" ht="18.75" customHeight="1">
       <c r="F23" s="13"/>
       <c r="M23" s="36"/>
       <c r="N23" s="46"/>
@@ -2514,9 +2528,9 @@
       <c r="AD23" s="36"/>
       <c r="AI23" s="36"/>
       <c r="AJ23" s="36"/>
-      <c r="AS23" s="36"/>
-    </row>
-    <row r="24" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT23" s="36"/>
+    </row>
+    <row r="24" spans="6:46" ht="18.75" customHeight="1">
       <c r="F24" s="13"/>
       <c r="M24" s="36"/>
       <c r="N24" s="46"/>
@@ -2525,9 +2539,9 @@
       <c r="AD24" s="36"/>
       <c r="AI24" s="36"/>
       <c r="AJ24" s="36"/>
-      <c r="AS24" s="36"/>
-    </row>
-    <row r="25" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT24" s="36"/>
+    </row>
+    <row r="25" spans="6:46" ht="18.75" customHeight="1">
       <c r="F25" s="13"/>
       <c r="M25" s="36"/>
       <c r="N25" s="46"/>
@@ -2536,9 +2550,9 @@
       <c r="AD25" s="36"/>
       <c r="AI25" s="36"/>
       <c r="AJ25" s="36"/>
-      <c r="AS25" s="36"/>
-    </row>
-    <row r="26" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT25" s="36"/>
+    </row>
+    <row r="26" spans="6:46" ht="18.75" customHeight="1">
       <c r="F26" s="13"/>
       <c r="M26" s="36"/>
       <c r="N26" s="46"/>
@@ -2547,9 +2561,9 @@
       <c r="AD26" s="36"/>
       <c r="AI26" s="36"/>
       <c r="AJ26" s="36"/>
-      <c r="AS26" s="36"/>
-    </row>
-    <row r="27" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT26" s="36"/>
+    </row>
+    <row r="27" spans="6:46" ht="18.75" customHeight="1">
       <c r="F27" s="13"/>
       <c r="M27" s="36"/>
       <c r="N27" s="46"/>
@@ -2558,9 +2572,9 @@
       <c r="AD27" s="36"/>
       <c r="AI27" s="36"/>
       <c r="AJ27" s="36"/>
-      <c r="AS27" s="36"/>
-    </row>
-    <row r="28" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT27" s="36"/>
+    </row>
+    <row r="28" spans="6:46" ht="18.75" customHeight="1">
       <c r="F28" s="13"/>
       <c r="M28" s="36"/>
       <c r="N28" s="46"/>
@@ -2569,9 +2583,9 @@
       <c r="AD28" s="36"/>
       <c r="AI28" s="36"/>
       <c r="AJ28" s="36"/>
-      <c r="AS28" s="36"/>
-    </row>
-    <row r="29" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT28" s="36"/>
+    </row>
+    <row r="29" spans="6:46" ht="18.75" customHeight="1">
       <c r="F29" s="13"/>
       <c r="M29" s="36"/>
       <c r="N29" s="46"/>
@@ -2580,9 +2594,9 @@
       <c r="AD29" s="36"/>
       <c r="AI29" s="36"/>
       <c r="AJ29" s="36"/>
-      <c r="AS29" s="36"/>
-    </row>
-    <row r="30" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT29" s="36"/>
+    </row>
+    <row r="30" spans="6:46" ht="18.75" customHeight="1">
       <c r="F30" s="13"/>
       <c r="M30" s="36"/>
       <c r="N30" s="46"/>
@@ -2591,9 +2605,9 @@
       <c r="AD30" s="36"/>
       <c r="AI30" s="36"/>
       <c r="AJ30" s="36"/>
-      <c r="AS30" s="36"/>
-    </row>
-    <row r="31" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT30" s="36"/>
+    </row>
+    <row r="31" spans="6:46" ht="18.75" customHeight="1">
       <c r="F31" s="13"/>
       <c r="M31" s="36"/>
       <c r="N31" s="46"/>
@@ -2602,9 +2616,9 @@
       <c r="AD31" s="36"/>
       <c r="AI31" s="36"/>
       <c r="AJ31" s="36"/>
-      <c r="AS31" s="36"/>
-    </row>
-    <row r="32" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT31" s="36"/>
+    </row>
+    <row r="32" spans="6:46" ht="18.75" customHeight="1">
       <c r="F32" s="13"/>
       <c r="M32" s="36"/>
       <c r="N32" s="46"/>
@@ -2613,9 +2627,9 @@
       <c r="AD32" s="36"/>
       <c r="AI32" s="36"/>
       <c r="AJ32" s="36"/>
-      <c r="AS32" s="36"/>
-    </row>
-    <row r="33" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT32" s="36"/>
+    </row>
+    <row r="33" spans="6:46" ht="18.75" customHeight="1">
       <c r="F33" s="13"/>
       <c r="M33" s="36"/>
       <c r="N33" s="46"/>
@@ -2624,9 +2638,9 @@
       <c r="AD33" s="36"/>
       <c r="AI33" s="36"/>
       <c r="AJ33" s="36"/>
-      <c r="AS33" s="36"/>
-    </row>
-    <row r="34" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT33" s="36"/>
+    </row>
+    <row r="34" spans="6:46" ht="18.75" customHeight="1">
       <c r="F34" s="13"/>
       <c r="M34" s="36"/>
       <c r="N34" s="46"/>
@@ -2635,9 +2649,9 @@
       <c r="AD34" s="36"/>
       <c r="AI34" s="36"/>
       <c r="AJ34" s="36"/>
-      <c r="AS34" s="36"/>
-    </row>
-    <row r="35" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT34" s="36"/>
+    </row>
+    <row r="35" spans="6:46" ht="18.75" customHeight="1">
       <c r="F35" s="13"/>
       <c r="M35" s="36"/>
       <c r="N35" s="46"/>
@@ -2646,9 +2660,9 @@
       <c r="AD35" s="36"/>
       <c r="AI35" s="36"/>
       <c r="AJ35" s="36"/>
-      <c r="AS35" s="36"/>
-    </row>
-    <row r="36" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT35" s="36"/>
+    </row>
+    <row r="36" spans="6:46" ht="18.75" customHeight="1">
       <c r="F36" s="13"/>
       <c r="M36" s="36"/>
       <c r="N36" s="46"/>
@@ -2657,9 +2671,9 @@
       <c r="AD36" s="36"/>
       <c r="AI36" s="36"/>
       <c r="AJ36" s="36"/>
-      <c r="AS36" s="36"/>
-    </row>
-    <row r="37" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT36" s="36"/>
+    </row>
+    <row r="37" spans="6:46" ht="18.75" customHeight="1">
       <c r="F37" s="13"/>
       <c r="M37" s="36"/>
       <c r="N37" s="46"/>
@@ -2668,9 +2682,9 @@
       <c r="AD37" s="36"/>
       <c r="AI37" s="36"/>
       <c r="AJ37" s="36"/>
-      <c r="AS37" s="36"/>
-    </row>
-    <row r="38" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT37" s="36"/>
+    </row>
+    <row r="38" spans="6:46" ht="18.75" customHeight="1">
       <c r="F38" s="13"/>
       <c r="M38" s="36"/>
       <c r="N38" s="46"/>
@@ -2679,9 +2693,9 @@
       <c r="AD38" s="36"/>
       <c r="AI38" s="36"/>
       <c r="AJ38" s="36"/>
-      <c r="AS38" s="36"/>
-    </row>
-    <row r="39" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT38" s="36"/>
+    </row>
+    <row r="39" spans="6:46" ht="18.75" customHeight="1">
       <c r="F39" s="13"/>
       <c r="M39" s="36"/>
       <c r="N39" s="46"/>
@@ -2690,9 +2704,9 @@
       <c r="AD39" s="36"/>
       <c r="AI39" s="36"/>
       <c r="AJ39" s="36"/>
-      <c r="AS39" s="36"/>
-    </row>
-    <row r="40" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT39" s="36"/>
+    </row>
+    <row r="40" spans="6:46" ht="18.75" customHeight="1">
       <c r="F40" s="13"/>
       <c r="M40" s="36"/>
       <c r="N40" s="46"/>
@@ -2701,9 +2715,9 @@
       <c r="AD40" s="36"/>
       <c r="AI40" s="36"/>
       <c r="AJ40" s="36"/>
-      <c r="AS40" s="36"/>
-    </row>
-    <row r="41" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT40" s="36"/>
+    </row>
+    <row r="41" spans="6:46" ht="18.75" customHeight="1">
       <c r="F41" s="13"/>
       <c r="M41" s="36"/>
       <c r="N41" s="46"/>
@@ -2712,9 +2726,9 @@
       <c r="AD41" s="36"/>
       <c r="AI41" s="36"/>
       <c r="AJ41" s="36"/>
-      <c r="AS41" s="36"/>
-    </row>
-    <row r="42" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT41" s="36"/>
+    </row>
+    <row r="42" spans="6:46" ht="18.75" customHeight="1">
       <c r="F42" s="13"/>
       <c r="M42" s="36"/>
       <c r="N42" s="46"/>
@@ -2723,9 +2737,9 @@
       <c r="AD42" s="36"/>
       <c r="AI42" s="36"/>
       <c r="AJ42" s="36"/>
-      <c r="AS42" s="36"/>
-    </row>
-    <row r="43" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT42" s="36"/>
+    </row>
+    <row r="43" spans="6:46" ht="18.75" customHeight="1">
       <c r="F43" s="13"/>
       <c r="M43" s="36"/>
       <c r="N43" s="46"/>
@@ -2734,9 +2748,9 @@
       <c r="AD43" s="36"/>
       <c r="AI43" s="36"/>
       <c r="AJ43" s="36"/>
-      <c r="AS43" s="36"/>
-    </row>
-    <row r="44" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT43" s="36"/>
+    </row>
+    <row r="44" spans="6:46" ht="18.75" customHeight="1">
       <c r="F44" s="13"/>
       <c r="M44" s="36"/>
       <c r="N44" s="46"/>
@@ -2745,9 +2759,9 @@
       <c r="AD44" s="36"/>
       <c r="AI44" s="36"/>
       <c r="AJ44" s="36"/>
-      <c r="AS44" s="36"/>
-    </row>
-    <row r="45" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AT44" s="36"/>
+    </row>
+    <row r="45" spans="6:46" ht="18.75" customHeight="1">
       <c r="F45" s="13"/>
       <c r="M45" s="36"/>
       <c r="N45" s="46"/>
@@ -2756,7 +2770,7 @@
       <c r="AD45" s="36"/>
       <c r="AI45" s="36"/>
       <c r="AJ45" s="36"/>
-      <c r="AS45" s="36"/>
+      <c r="AT45" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4596,8 +4610,8 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4611,10 +4625,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4628,10 +4642,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4645,10 +4659,10 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -4662,10 +4676,10 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4679,10 +4693,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4696,10 +4710,10 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -4713,10 +4727,10 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -4730,10 +4744,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -4747,10 +4761,10 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -4764,10 +4778,10 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -4781,10 +4795,10 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -4798,10 +4812,10 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -4815,10 +4829,10 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -4832,10 +4846,10 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -4849,10 +4863,10 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -4866,10 +4880,10 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -4883,10 +4897,10 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -4900,10 +4914,10 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -4917,10 +4931,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -4934,10 +4948,10 @@
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -4951,10 +4965,10 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -4968,10 +4982,10 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -4985,10 +4999,10 @@
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -5198,10 +5212,10 @@
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5213,8 +5227,8 @@
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -5228,10 +5242,10 @@
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -5245,10 +5259,10 @@
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -5262,10 +5276,10 @@
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5279,10 +5293,10 @@
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5296,10 +5310,10 @@
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="51"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -5313,10 +5327,10 @@
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="51"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -5330,10 +5344,10 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="51"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -5377,10 +5391,10 @@
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="51"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -5392,8 +5406,8 @@
     </row>
     <row r="49" spans="1:11" ht="18.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5407,10 +5421,10 @@
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="51"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -5424,10 +5438,10 @@
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="51"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -5441,10 +5455,10 @@
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="51"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5458,10 +5472,10 @@
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="51"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -5475,10 +5489,10 @@
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="51"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -5492,10 +5506,10 @@
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="51"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5509,10 +5523,10 @@
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="51"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5526,10 +5540,10 @@
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="51"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5543,10 +5557,10 @@
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="51"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5560,10 +5574,10 @@
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="51"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5577,10 +5591,10 @@
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="51"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5594,10 +5608,10 @@
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="51"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5611,10 +5625,10 @@
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -5628,10 +5642,10 @@
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -5645,10 +5659,10 @@
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="51"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -5662,10 +5676,10 @@
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="51"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -5679,10 +5693,10 @@
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="51"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -5696,10 +5710,10 @@
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="51"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -5713,10 +5727,10 @@
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="51"/>
+      <c r="C68" s="53"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -5730,10 +5744,10 @@
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="51"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -5747,10 +5761,10 @@
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="51"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -5764,10 +5778,10 @@
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="51"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -5781,10 +5795,10 @@
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="51"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -5798,10 +5812,10 @@
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="51"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -5815,10 +5829,10 @@
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="51"/>
+      <c r="C74" s="53"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -5832,10 +5846,10 @@
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="51"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -5849,10 +5863,10 @@
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="51"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -5866,10 +5880,10 @@
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="51"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -6457,61 +6471,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -6520,6 +6479,61 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sample_metadata/rsv_test_metadata.xlsx
+++ b/assets/sample_metadata/rsv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105C7781-DFEC-42F0-A386-83F39D64D962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBCA0FD-AF65-487E-9D75-70234B35111C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="414">
   <si>
     <t>Strategy</t>
   </si>
@@ -1277,6 +1277,9 @@
   </si>
   <si>
     <t>nanopore_library_name</t>
+  </si>
+  <si>
+    <t>Not Provided</t>
   </si>
 </sst>
 </file>
@@ -2000,8 +2003,8 @@
   </sheetPr>
   <dimension ref="A1:BD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AZ3" sqref="AZ3"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2295,6 +2298,9 @@
       </c>
       <c r="AN3" t="s">
         <v>310</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>413</v>
       </c>
       <c r="AQ3" t="s">
         <v>384</v>
@@ -6471,6 +6477,61 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -6479,61 +6540,6 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sample_metadata/rsv_test_metadata.xlsx
+++ b/assets/sample_metadata/rsv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBCA0FD-AF65-487E-9D75-70234B35111C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A83386-9CE7-499C-BF5C-1DA4F51FA2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="2410" windowWidth="20790" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="415">
   <si>
     <t>Strategy</t>
   </si>
@@ -1280,6 +1280,9 @@
   </si>
   <si>
     <t>Not Provided</t>
+  </si>
+  <si>
+    <t>ncbi-spuid-sra</t>
   </si>
 </sst>
 </file>
@@ -2003,29 +2006,29 @@
   </sheetPr>
   <dimension ref="A1:BD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AP4" sqref="AP4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="23.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="15.1796875" customWidth="1"/>
-    <col min="13" max="13" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.453125" customWidth="1"/>
-    <col min="16" max="17" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="31" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.453125" style="17" customWidth="1"/>
-    <col min="35" max="35" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="24.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="15.1796875" customWidth="1"/>
+    <col min="14" max="14" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="23.453125" customWidth="1"/>
+    <col min="17" max="18" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="13.453125" style="17" customWidth="1"/>
     <col min="36" max="41" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="42" max="43" width="13.453125" customWidth="1"/>
     <col min="44" max="51" width="13.453125" bestFit="1" customWidth="1"/>
@@ -2038,20 +2041,18 @@
       <c r="A1" t="s">
         <v>317</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="M1" s="36" t="s">
+      <c r="C1" s="36"/>
+      <c r="G1" s="13"/>
+      <c r="N1" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="N1" s="46"/>
       <c r="O1" s="46"/>
-      <c r="Z1" s="36" t="s">
+      <c r="P1" s="46"/>
+      <c r="AA1" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AE1" s="36" t="s">
         <v>320</v>
-      </c>
-      <c r="AI1" s="36" t="s">
-        <v>321</v>
       </c>
       <c r="AJ1" s="36" t="s">
         <v>322</v>
@@ -2068,101 +2069,101 @@
         <v>379</v>
       </c>
       <c r="C2" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>380</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>381</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="F2" s="45" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G2" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="H2" s="45" t="s">
         <v>403</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="I2" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="J2" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="K2" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="L2" s="47" t="s">
         <v>389</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="M2" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="N2" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="O2" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="47"/>
+      <c r="Q2" s="45" t="s">
         <v>369</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="R2" s="45" t="s">
         <v>370</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="S2" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="T2" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="U2" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="V2" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="W2" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="X2" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="Y2" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="Y2" s="45" t="s">
+      <c r="Z2" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="Z2" s="51" t="s">
+      <c r="AA2" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AB2" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="AB2" s="45" t="s">
+      <c r="AC2" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="AC2" s="45" t="s">
+      <c r="AD2" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="AD2" s="51" t="s">
+      <c r="AE2" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AF2" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="AF2" s="52" t="s">
+      <c r="AG2" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="AG2" s="48" t="s">
+      <c r="AH2" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="AH2" s="48" t="s">
+      <c r="AI2" s="48" t="s">
         <v>394</v>
-      </c>
-      <c r="AI2" s="51" t="s">
-        <v>224</v>
       </c>
       <c r="AJ2" s="51" t="s">
         <v>288</v>
@@ -2235,54 +2236,54 @@
       <c r="B3" t="s">
         <v>409</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" t="s">
         <v>406</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>408</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>402</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>401</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>395</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>409</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>257</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>396</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>350</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>307</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>376</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>377</v>
       </c>
-      <c r="Z3" s="36"/>
-      <c r="AD3" s="36" t="s">
+      <c r="AA3" s="36"/>
+      <c r="AE3" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AG3" s="14">
         <v>40</v>
       </c>
-      <c r="AG3" s="49" t="s">
+      <c r="AH3" s="49" t="s">
         <v>397</v>
-      </c>
-      <c r="AI3" s="36" t="s">
-        <v>410</v>
       </c>
       <c r="AJ3" s="36" t="s">
         <v>216</v>
@@ -2323,11 +2324,11 @@
       </c>
     </row>
     <row r="4" spans="1:56" ht="18.75" customHeight="1">
-      <c r="Z4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AF4" s="14"/>
+      <c r="C4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AE4" s="36"/>
       <c r="AG4" s="14"/>
-      <c r="AI4" s="36"/>
+      <c r="AH4" s="14"/>
       <c r="AJ4" s="36"/>
       <c r="AT4" s="36"/>
       <c r="BB4" s="14"/>
@@ -2335,446 +2336,446 @@
       <c r="BD4" s="14"/>
     </row>
     <row r="5" spans="1:56">
-      <c r="Z5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AI5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AE5" s="36"/>
       <c r="AJ5" s="36"/>
     </row>
     <row r="6" spans="1:56" ht="18.75" customHeight="1">
-      <c r="Z6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AF6" s="14"/>
+      <c r="C6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AE6" s="36"/>
       <c r="AG6" s="14"/>
-      <c r="AI6" s="36"/>
+      <c r="AH6" s="14"/>
       <c r="AJ6" s="36"/>
       <c r="AT6" s="36"/>
       <c r="BC6" s="50"/>
       <c r="BD6" s="14"/>
     </row>
     <row r="7" spans="1:56" ht="18.75" customHeight="1">
-      <c r="Z7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="49"/>
-      <c r="AI7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="49"/>
       <c r="AJ7" s="36"/>
       <c r="AT7" s="36"/>
       <c r="BB7" s="14"/>
       <c r="BD7" s="14"/>
     </row>
     <row r="8" spans="1:56" ht="18.75" customHeight="1">
-      <c r="Z8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AF8" s="14"/>
+      <c r="C8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AE8" s="36"/>
       <c r="AG8" s="14"/>
-      <c r="AI8" s="36"/>
+      <c r="AH8" s="14"/>
       <c r="AJ8" s="36"/>
       <c r="AT8" s="36"/>
     </row>
     <row r="9" spans="1:56" ht="18.75" customHeight="1">
-      <c r="F9" s="13"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="46"/>
+      <c r="C9" s="36"/>
+      <c r="G9" s="13"/>
+      <c r="N9" s="36"/>
       <c r="O9" s="46"/>
-      <c r="Z9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AI9" s="36"/>
+      <c r="P9" s="46"/>
+      <c r="AA9" s="36"/>
+      <c r="AE9" s="36"/>
       <c r="AJ9" s="36"/>
       <c r="AT9" s="36"/>
     </row>
     <row r="10" spans="1:56" ht="18.75" customHeight="1">
-      <c r="F10" s="13"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="46"/>
+      <c r="C10" s="36"/>
+      <c r="G10" s="13"/>
+      <c r="N10" s="36"/>
       <c r="O10" s="46"/>
-      <c r="Z10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AI10" s="36"/>
+      <c r="P10" s="46"/>
+      <c r="AA10" s="36"/>
+      <c r="AE10" s="36"/>
       <c r="AJ10" s="36"/>
       <c r="AT10" s="36"/>
     </row>
     <row r="11" spans="1:56" ht="18.75" customHeight="1">
-      <c r="F11" s="13"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="46"/>
+      <c r="C11" s="36"/>
+      <c r="G11" s="13"/>
+      <c r="N11" s="36"/>
       <c r="O11" s="46"/>
-      <c r="Z11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AI11" s="36"/>
+      <c r="P11" s="46"/>
+      <c r="AA11" s="36"/>
+      <c r="AE11" s="36"/>
       <c r="AJ11" s="36"/>
       <c r="AT11" s="36"/>
     </row>
     <row r="12" spans="1:56" ht="18.75" customHeight="1">
-      <c r="F12" s="13"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="46"/>
+      <c r="C12" s="36"/>
+      <c r="G12" s="13"/>
+      <c r="N12" s="36"/>
       <c r="O12" s="46"/>
-      <c r="Z12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AI12" s="36"/>
+      <c r="P12" s="46"/>
+      <c r="AA12" s="36"/>
+      <c r="AE12" s="36"/>
       <c r="AJ12" s="36"/>
       <c r="AT12" s="36"/>
     </row>
     <row r="13" spans="1:56" ht="18.75" customHeight="1">
-      <c r="F13" s="13"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="46"/>
+      <c r="C13" s="36"/>
+      <c r="G13" s="13"/>
+      <c r="N13" s="36"/>
       <c r="O13" s="46"/>
-      <c r="Z13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AI13" s="36"/>
+      <c r="P13" s="46"/>
+      <c r="AA13" s="36"/>
+      <c r="AE13" s="36"/>
       <c r="AJ13" s="36"/>
       <c r="AT13" s="36"/>
     </row>
     <row r="14" spans="1:56" ht="18.75" customHeight="1">
-      <c r="F14" s="13"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="46"/>
+      <c r="C14" s="36"/>
+      <c r="G14" s="13"/>
+      <c r="N14" s="36"/>
       <c r="O14" s="46"/>
-      <c r="Z14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AI14" s="36"/>
+      <c r="P14" s="46"/>
+      <c r="AA14" s="36"/>
+      <c r="AE14" s="36"/>
       <c r="AJ14" s="36"/>
       <c r="AT14" s="36"/>
     </row>
     <row r="15" spans="1:56" ht="18.75" customHeight="1">
-      <c r="F15" s="13"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="46"/>
+      <c r="C15" s="36"/>
+      <c r="G15" s="13"/>
+      <c r="N15" s="36"/>
       <c r="O15" s="46"/>
-      <c r="Z15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AI15" s="36"/>
+      <c r="P15" s="46"/>
+      <c r="AA15" s="36"/>
+      <c r="AE15" s="36"/>
       <c r="AJ15" s="36"/>
       <c r="AT15" s="36"/>
     </row>
     <row r="16" spans="1:56" ht="18.75" customHeight="1">
-      <c r="F16" s="13"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="46"/>
+      <c r="C16" s="36"/>
+      <c r="G16" s="13"/>
+      <c r="N16" s="36"/>
       <c r="O16" s="46"/>
-      <c r="Z16" s="36"/>
-      <c r="AD16" s="36"/>
-      <c r="AI16" s="36"/>
+      <c r="P16" s="46"/>
+      <c r="AA16" s="36"/>
+      <c r="AE16" s="36"/>
       <c r="AJ16" s="36"/>
       <c r="AT16" s="36"/>
     </row>
-    <row r="17" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F17" s="13"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="46"/>
+    <row r="17" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C17" s="36"/>
+      <c r="G17" s="13"/>
+      <c r="N17" s="36"/>
       <c r="O17" s="46"/>
-      <c r="Z17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AI17" s="36"/>
+      <c r="P17" s="46"/>
+      <c r="AA17" s="36"/>
+      <c r="AE17" s="36"/>
       <c r="AJ17" s="36"/>
       <c r="AT17" s="36"/>
     </row>
-    <row r="18" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F18" s="13"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="46"/>
+    <row r="18" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C18" s="36"/>
+      <c r="G18" s="13"/>
+      <c r="N18" s="36"/>
       <c r="O18" s="46"/>
-      <c r="Z18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AI18" s="36"/>
+      <c r="P18" s="46"/>
+      <c r="AA18" s="36"/>
+      <c r="AE18" s="36"/>
       <c r="AJ18" s="36"/>
       <c r="AT18" s="36"/>
     </row>
-    <row r="19" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F19" s="13"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="46"/>
+    <row r="19" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C19" s="36"/>
+      <c r="G19" s="13"/>
+      <c r="N19" s="36"/>
       <c r="O19" s="46"/>
-      <c r="Z19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AI19" s="36"/>
+      <c r="P19" s="46"/>
+      <c r="AA19" s="36"/>
+      <c r="AE19" s="36"/>
       <c r="AJ19" s="36"/>
       <c r="AT19" s="36"/>
     </row>
-    <row r="20" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F20" s="13"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="46"/>
+    <row r="20" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C20" s="36"/>
+      <c r="G20" s="13"/>
+      <c r="N20" s="36"/>
       <c r="O20" s="46"/>
-      <c r="Z20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AI20" s="36"/>
+      <c r="P20" s="46"/>
+      <c r="AA20" s="36"/>
+      <c r="AE20" s="36"/>
       <c r="AJ20" s="36"/>
       <c r="AT20" s="36"/>
     </row>
-    <row r="21" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F21" s="13"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="46"/>
+    <row r="21" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C21" s="36"/>
+      <c r="G21" s="13"/>
+      <c r="N21" s="36"/>
       <c r="O21" s="46"/>
-      <c r="Z21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AI21" s="36"/>
+      <c r="P21" s="46"/>
+      <c r="AA21" s="36"/>
+      <c r="AE21" s="36"/>
       <c r="AJ21" s="36"/>
       <c r="AT21" s="36"/>
     </row>
-    <row r="22" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F22" s="13"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="46"/>
+    <row r="22" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C22" s="36"/>
+      <c r="G22" s="13"/>
+      <c r="N22" s="36"/>
       <c r="O22" s="46"/>
-      <c r="Z22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AI22" s="36"/>
+      <c r="P22" s="46"/>
+      <c r="AA22" s="36"/>
+      <c r="AE22" s="36"/>
       <c r="AJ22" s="36"/>
       <c r="AT22" s="36"/>
     </row>
-    <row r="23" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F23" s="13"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="46"/>
+    <row r="23" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C23" s="36"/>
+      <c r="G23" s="13"/>
+      <c r="N23" s="36"/>
       <c r="O23" s="46"/>
-      <c r="Z23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AI23" s="36"/>
+      <c r="P23" s="46"/>
+      <c r="AA23" s="36"/>
+      <c r="AE23" s="36"/>
       <c r="AJ23" s="36"/>
       <c r="AT23" s="36"/>
     </row>
-    <row r="24" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F24" s="13"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="46"/>
+    <row r="24" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C24" s="36"/>
+      <c r="G24" s="13"/>
+      <c r="N24" s="36"/>
       <c r="O24" s="46"/>
-      <c r="Z24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AI24" s="36"/>
+      <c r="P24" s="46"/>
+      <c r="AA24" s="36"/>
+      <c r="AE24" s="36"/>
       <c r="AJ24" s="36"/>
       <c r="AT24" s="36"/>
     </row>
-    <row r="25" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F25" s="13"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="46"/>
+    <row r="25" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C25" s="36"/>
+      <c r="G25" s="13"/>
+      <c r="N25" s="36"/>
       <c r="O25" s="46"/>
-      <c r="Z25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AI25" s="36"/>
+      <c r="P25" s="46"/>
+      <c r="AA25" s="36"/>
+      <c r="AE25" s="36"/>
       <c r="AJ25" s="36"/>
       <c r="AT25" s="36"/>
     </row>
-    <row r="26" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F26" s="13"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="46"/>
+    <row r="26" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C26" s="36"/>
+      <c r="G26" s="13"/>
+      <c r="N26" s="36"/>
       <c r="O26" s="46"/>
-      <c r="Z26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AI26" s="36"/>
+      <c r="P26" s="46"/>
+      <c r="AA26" s="36"/>
+      <c r="AE26" s="36"/>
       <c r="AJ26" s="36"/>
       <c r="AT26" s="36"/>
     </row>
-    <row r="27" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F27" s="13"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="46"/>
+    <row r="27" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C27" s="36"/>
+      <c r="G27" s="13"/>
+      <c r="N27" s="36"/>
       <c r="O27" s="46"/>
-      <c r="Z27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AI27" s="36"/>
+      <c r="P27" s="46"/>
+      <c r="AA27" s="36"/>
+      <c r="AE27" s="36"/>
       <c r="AJ27" s="36"/>
       <c r="AT27" s="36"/>
     </row>
-    <row r="28" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F28" s="13"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="46"/>
+    <row r="28" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C28" s="36"/>
+      <c r="G28" s="13"/>
+      <c r="N28" s="36"/>
       <c r="O28" s="46"/>
-      <c r="Z28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AI28" s="36"/>
+      <c r="P28" s="46"/>
+      <c r="AA28" s="36"/>
+      <c r="AE28" s="36"/>
       <c r="AJ28" s="36"/>
       <c r="AT28" s="36"/>
     </row>
-    <row r="29" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F29" s="13"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="46"/>
+    <row r="29" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C29" s="36"/>
+      <c r="G29" s="13"/>
+      <c r="N29" s="36"/>
       <c r="O29" s="46"/>
-      <c r="Z29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AI29" s="36"/>
+      <c r="P29" s="46"/>
+      <c r="AA29" s="36"/>
+      <c r="AE29" s="36"/>
       <c r="AJ29" s="36"/>
       <c r="AT29" s="36"/>
     </row>
-    <row r="30" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F30" s="13"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="46"/>
+    <row r="30" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C30" s="36"/>
+      <c r="G30" s="13"/>
+      <c r="N30" s="36"/>
       <c r="O30" s="46"/>
-      <c r="Z30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AI30" s="36"/>
+      <c r="P30" s="46"/>
+      <c r="AA30" s="36"/>
+      <c r="AE30" s="36"/>
       <c r="AJ30" s="36"/>
       <c r="AT30" s="36"/>
     </row>
-    <row r="31" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F31" s="13"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="46"/>
+    <row r="31" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C31" s="36"/>
+      <c r="G31" s="13"/>
+      <c r="N31" s="36"/>
       <c r="O31" s="46"/>
-      <c r="Z31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AI31" s="36"/>
+      <c r="P31" s="46"/>
+      <c r="AA31" s="36"/>
+      <c r="AE31" s="36"/>
       <c r="AJ31" s="36"/>
       <c r="AT31" s="36"/>
     </row>
-    <row r="32" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F32" s="13"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="46"/>
+    <row r="32" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C32" s="36"/>
+      <c r="G32" s="13"/>
+      <c r="N32" s="36"/>
       <c r="O32" s="46"/>
-      <c r="Z32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AI32" s="36"/>
+      <c r="P32" s="46"/>
+      <c r="AA32" s="36"/>
+      <c r="AE32" s="36"/>
       <c r="AJ32" s="36"/>
       <c r="AT32" s="36"/>
     </row>
-    <row r="33" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F33" s="13"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="46"/>
+    <row r="33" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C33" s="36"/>
+      <c r="G33" s="13"/>
+      <c r="N33" s="36"/>
       <c r="O33" s="46"/>
-      <c r="Z33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AI33" s="36"/>
+      <c r="P33" s="46"/>
+      <c r="AA33" s="36"/>
+      <c r="AE33" s="36"/>
       <c r="AJ33" s="36"/>
       <c r="AT33" s="36"/>
     </row>
-    <row r="34" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F34" s="13"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="46"/>
+    <row r="34" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C34" s="36"/>
+      <c r="G34" s="13"/>
+      <c r="N34" s="36"/>
       <c r="O34" s="46"/>
-      <c r="Z34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AI34" s="36"/>
+      <c r="P34" s="46"/>
+      <c r="AA34" s="36"/>
+      <c r="AE34" s="36"/>
       <c r="AJ34" s="36"/>
       <c r="AT34" s="36"/>
     </row>
-    <row r="35" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F35" s="13"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="46"/>
+    <row r="35" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C35" s="36"/>
+      <c r="G35" s="13"/>
+      <c r="N35" s="36"/>
       <c r="O35" s="46"/>
-      <c r="Z35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AI35" s="36"/>
+      <c r="P35" s="46"/>
+      <c r="AA35" s="36"/>
+      <c r="AE35" s="36"/>
       <c r="AJ35" s="36"/>
       <c r="AT35" s="36"/>
     </row>
-    <row r="36" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F36" s="13"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="46"/>
+    <row r="36" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C36" s="36"/>
+      <c r="G36" s="13"/>
+      <c r="N36" s="36"/>
       <c r="O36" s="46"/>
-      <c r="Z36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AI36" s="36"/>
+      <c r="P36" s="46"/>
+      <c r="AA36" s="36"/>
+      <c r="AE36" s="36"/>
       <c r="AJ36" s="36"/>
       <c r="AT36" s="36"/>
     </row>
-    <row r="37" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F37" s="13"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="46"/>
+    <row r="37" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C37" s="36"/>
+      <c r="G37" s="13"/>
+      <c r="N37" s="36"/>
       <c r="O37" s="46"/>
-      <c r="Z37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AI37" s="36"/>
+      <c r="P37" s="46"/>
+      <c r="AA37" s="36"/>
+      <c r="AE37" s="36"/>
       <c r="AJ37" s="36"/>
       <c r="AT37" s="36"/>
     </row>
-    <row r="38" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F38" s="13"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="46"/>
+    <row r="38" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C38" s="36"/>
+      <c r="G38" s="13"/>
+      <c r="N38" s="36"/>
       <c r="O38" s="46"/>
-      <c r="Z38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AI38" s="36"/>
+      <c r="P38" s="46"/>
+      <c r="AA38" s="36"/>
+      <c r="AE38" s="36"/>
       <c r="AJ38" s="36"/>
       <c r="AT38" s="36"/>
     </row>
-    <row r="39" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F39" s="13"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="46"/>
+    <row r="39" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C39" s="36"/>
+      <c r="G39" s="13"/>
+      <c r="N39" s="36"/>
       <c r="O39" s="46"/>
-      <c r="Z39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AI39" s="36"/>
+      <c r="P39" s="46"/>
+      <c r="AA39" s="36"/>
+      <c r="AE39" s="36"/>
       <c r="AJ39" s="36"/>
       <c r="AT39" s="36"/>
     </row>
-    <row r="40" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F40" s="13"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="46"/>
+    <row r="40" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C40" s="36"/>
+      <c r="G40" s="13"/>
+      <c r="N40" s="36"/>
       <c r="O40" s="46"/>
-      <c r="Z40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AI40" s="36"/>
+      <c r="P40" s="46"/>
+      <c r="AA40" s="36"/>
+      <c r="AE40" s="36"/>
       <c r="AJ40" s="36"/>
       <c r="AT40" s="36"/>
     </row>
-    <row r="41" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F41" s="13"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="46"/>
+    <row r="41" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C41" s="36"/>
+      <c r="G41" s="13"/>
+      <c r="N41" s="36"/>
       <c r="O41" s="46"/>
-      <c r="Z41" s="36"/>
-      <c r="AD41" s="36"/>
-      <c r="AI41" s="36"/>
+      <c r="P41" s="46"/>
+      <c r="AA41" s="36"/>
+      <c r="AE41" s="36"/>
       <c r="AJ41" s="36"/>
       <c r="AT41" s="36"/>
     </row>
-    <row r="42" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F42" s="13"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="46"/>
+    <row r="42" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C42" s="36"/>
+      <c r="G42" s="13"/>
+      <c r="N42" s="36"/>
       <c r="O42" s="46"/>
-      <c r="Z42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AI42" s="36"/>
+      <c r="P42" s="46"/>
+      <c r="AA42" s="36"/>
+      <c r="AE42" s="36"/>
       <c r="AJ42" s="36"/>
       <c r="AT42" s="36"/>
     </row>
-    <row r="43" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F43" s="13"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="46"/>
+    <row r="43" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C43" s="36"/>
+      <c r="G43" s="13"/>
+      <c r="N43" s="36"/>
       <c r="O43" s="46"/>
-      <c r="Z43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AI43" s="36"/>
+      <c r="P43" s="46"/>
+      <c r="AA43" s="36"/>
+      <c r="AE43" s="36"/>
       <c r="AJ43" s="36"/>
       <c r="AT43" s="36"/>
     </row>
-    <row r="44" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F44" s="13"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="46"/>
+    <row r="44" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C44" s="36"/>
+      <c r="G44" s="13"/>
+      <c r="N44" s="36"/>
       <c r="O44" s="46"/>
-      <c r="Z44" s="36"/>
-      <c r="AD44" s="36"/>
-      <c r="AI44" s="36"/>
+      <c r="P44" s="46"/>
+      <c r="AA44" s="36"/>
+      <c r="AE44" s="36"/>
       <c r="AJ44" s="36"/>
       <c r="AT44" s="36"/>
     </row>
-    <row r="45" spans="6:46" ht="18.75" customHeight="1">
-      <c r="F45" s="13"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="46"/>
+    <row r="45" spans="3:46" ht="18.75" customHeight="1">
+      <c r="C45" s="36"/>
+      <c r="G45" s="13"/>
+      <c r="N45" s="36"/>
       <c r="O45" s="46"/>
-      <c r="Z45" s="36"/>
-      <c r="AD45" s="36"/>
-      <c r="AI45" s="36"/>
+      <c r="P45" s="46"/>
+      <c r="AA45" s="36"/>
+      <c r="AE45" s="36"/>
       <c r="AJ45" s="36"/>
       <c r="AT45" s="36"/>
     </row>
@@ -6477,61 +6478,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -6540,6 +6486,61 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
